--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1552500.511168477</v>
+        <v>-1555208.859428928</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8907448.264501637</v>
+        <v>8907448.264501635</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.402217996313455</v>
+        <v>62.24894065618087</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>111.7572357592746</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.15919982126637</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>9.103391376296655</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>207.6799423368158</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>414.2373574691581</v>
+        <v>14.23735746915807</v>
       </c>
       <c r="H5" t="n">
-        <v>328.5639787199054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>169.4028253478785</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>184.742721788545</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.4321484128672</v>
       </c>
       <c r="U5" t="n">
         <v>251.2604225041583</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>322.3606327904348</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.7734885848372</v>
       </c>
       <c r="H6" t="n">
-        <v>106.7301682295741</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>69.77064890303143</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>64.76605978661523</v>
+        <v>64.7660597866152</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>161.0951402730856</v>
       </c>
       <c r="T6" t="n">
-        <v>197.8671135039217</v>
+        <v>197.8671135039216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9038802008187</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>75.28671789679845</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>59.9713304634512</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>141.0789347381952</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>46.92582822484395</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>213.182750275298</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>204.5603086631278</v>
+        <v>359.7648355827137</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>23.0277385692792</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>88.06311349350432</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>309.0662253196072</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>303.6241524163374</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>60.61620153653836</v>
       </c>
       <c r="H13" t="n">
-        <v>26.50353219299588</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>288.5436314679339</v>
       </c>
       <c r="I14" t="n">
-        <v>18.74890737579167</v>
+        <v>18.74890737579168</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>113.1668376058675</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.7601999336378</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>56.51655300453834</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>76.98943651203574</v>
       </c>
       <c r="S16" t="n">
         <v>185.140196606228</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>3.474272765116822</v>
       </c>
       <c r="E19" t="n">
-        <v>3.474272765116822</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2296,7 +2296,7 @@
         <v>286.1973504787734</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>109.1779534423758</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>106.8414706343675</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>34.69077992884181</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3935154394855</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>88.36485367900463</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>76.98943651203574</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>185.140196606228</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>218.4140773404099</v>
       </c>
       <c r="U25" t="n">
-        <v>21.99704438432572</v>
+        <v>286.1973504787734</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.272891771009</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.87229030048491</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>22.10562084553229</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2801,16 +2801,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.329597454319</v>
+        <v>410.3295974543189</v>
       </c>
       <c r="H29" t="n">
         <v>288.5436314679339</v>
       </c>
       <c r="I29" t="n">
-        <v>18.74890737579173</v>
+        <v>18.74890737579167</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>95.6946404503976</v>
+        <v>95.69464045039754</v>
       </c>
       <c r="T29" t="n">
-        <v>201.3259289479095</v>
+        <v>201.3259289479087</v>
       </c>
       <c r="U29" t="n">
         <v>250.9478017029712</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>140.9957163125079</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3935154394855</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>88.36485367900463</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>76.98943651203574</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>185.140196606228</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>218.4140773404099</v>
@@ -3007,7 +3007,7 @@
         <v>286.1973504787734</v>
       </c>
       <c r="V31" t="n">
-        <v>94.82272730433718</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.02774143574955</v>
+        <v>42.02774143574954</v>
       </c>
       <c r="S34" t="n">
-        <v>150.1785015299417</v>
+        <v>150.1785015299418</v>
       </c>
       <c r="T34" t="n">
         <v>183.4523822641237</v>
@@ -3266,16 +3266,16 @@
         <v>347.7721465871944</v>
       </c>
       <c r="C35" t="n">
-        <v>330.3111966947213</v>
+        <v>330.3111966947214</v>
       </c>
       <c r="D35" t="n">
-        <v>319.7213465443967</v>
+        <v>319.7213465443968</v>
       </c>
       <c r="E35" t="n">
         <v>346.9686749959756</v>
       </c>
       <c r="F35" t="n">
-        <v>371.9143506654252</v>
+        <v>371.9143506654253</v>
       </c>
       <c r="G35" t="n">
         <v>375.3679023780327</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.73294537411135</v>
+        <v>60.73294537411138</v>
       </c>
       <c r="T35" t="n">
-        <v>166.3642338716225</v>
+        <v>166.3642338716226</v>
       </c>
       <c r="U35" t="n">
         <v>215.986106626685</v>
@@ -3329,7 +3329,7 @@
         <v>314.2792736411268</v>
       </c>
       <c r="X35" t="n">
-        <v>334.7694056021828</v>
+        <v>334.7694056021829</v>
       </c>
       <c r="Y35" t="n">
         <v>351.2762435797674</v>
@@ -3424,7 +3424,7 @@
         <v>144.8702851056511</v>
       </c>
       <c r="C37" t="n">
-        <v>132.2851260223416</v>
+        <v>132.2851260223417</v>
       </c>
       <c r="D37" t="n">
         <v>113.6537779419262</v>
@@ -3433,7 +3433,7 @@
         <v>111.472267570283</v>
       </c>
       <c r="F37" t="n">
-        <v>110.4593529466451</v>
+        <v>110.4593529466444</v>
       </c>
       <c r="G37" t="n">
         <v>130.7985048573516</v>
@@ -3442,7 +3442,7 @@
         <v>107.4318203631993</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40315860271843</v>
+        <v>53.40315860271846</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.02774143574954</v>
+        <v>42.02774143574958</v>
       </c>
       <c r="S37" t="n">
         <v>150.1785015299418</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.73294537411137</v>
+        <v>60.73294537411138</v>
       </c>
       <c r="T38" t="n">
         <v>166.3642338716226</v>
@@ -3679,7 +3679,7 @@
         <v>107.4318203631993</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40315860271845</v>
+        <v>53.40315860271846</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.73294537411134</v>
+        <v>60.73294537411135</v>
       </c>
       <c r="T41" t="n">
         <v>166.3642338716225</v>
@@ -3837,7 +3837,7 @@
         <v>86.53709484534657</v>
       </c>
       <c r="I42" t="n">
-        <v>7.909281580142306</v>
+        <v>7.909281580142292</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>132.2851260223416</v>
       </c>
       <c r="D43" t="n">
-        <v>113.6537779419261</v>
+        <v>113.6537779419262</v>
       </c>
       <c r="E43" t="n">
         <v>111.472267570283</v>
       </c>
       <c r="F43" t="n">
-        <v>110.459352946645</v>
+        <v>110.4593529466451</v>
       </c>
       <c r="G43" t="n">
-        <v>130.7985048573515</v>
+        <v>130.7985048573516</v>
       </c>
       <c r="H43" t="n">
         <v>107.4318203631993</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40315860271842</v>
+        <v>53.40315860271843</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.02774143574955</v>
+        <v>42.02774143574954</v>
       </c>
       <c r="S43" t="n">
-        <v>150.1785015299417</v>
+        <v>150.1785015299418</v>
       </c>
       <c r="T43" t="n">
         <v>183.4523822641237</v>
@@ -3961,7 +3961,7 @@
         <v>251.5613032603048</v>
       </c>
       <c r="X43" t="n">
-        <v>190.7479603127509</v>
+        <v>190.747960312751</v>
       </c>
       <c r="Y43" t="n">
         <v>183.6229582758086</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.73294537411137</v>
+        <v>60.73294537411135</v>
       </c>
       <c r="T44" t="n">
-        <v>166.3642338716225</v>
+        <v>166.3642338716226</v>
       </c>
       <c r="U44" t="n">
         <v>215.986106626685</v>
@@ -4071,10 +4071,10 @@
         <v>134.6826526485956</v>
       </c>
       <c r="H45" t="n">
-        <v>86.53709484534657</v>
+        <v>86.53709484534656</v>
       </c>
       <c r="I45" t="n">
-        <v>7.909281580142306</v>
+        <v>7.909281580142277</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>144.8702851056511</v>
       </c>
       <c r="C46" t="n">
-        <v>132.2851260223416</v>
+        <v>132.2851260223417</v>
       </c>
       <c r="D46" t="n">
         <v>113.6537779419262</v>
@@ -4153,7 +4153,7 @@
         <v>107.4318203631993</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40315860271846</v>
+        <v>53.40315860271845</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.02774143574958</v>
+        <v>42.02774143574956</v>
       </c>
       <c r="S46" t="n">
         <v>150.1785015299418</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>316.4710841672797</v>
+        <v>84.97023893071457</v>
       </c>
       <c r="C2" t="n">
-        <v>316.4710841672797</v>
+        <v>84.97023893071457</v>
       </c>
       <c r="D2" t="n">
-        <v>316.4710841672797</v>
+        <v>84.97023893071457</v>
       </c>
       <c r="E2" t="n">
-        <v>316.4710841672797</v>
+        <v>84.97023893071457</v>
       </c>
       <c r="F2" t="n">
-        <v>309.5255834180762</v>
+        <v>84.97023893071457</v>
       </c>
       <c r="G2" t="n">
-        <v>309.5255834180762</v>
+        <v>84.97023893071457</v>
       </c>
       <c r="H2" t="n">
-        <v>30.57960998135354</v>
+        <v>84.97023893071457</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>962.1762753293416</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="T2" t="n">
-        <v>849.2901786028016</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="U2" t="n">
-        <v>595.4170576040024</v>
+        <v>642.8621858041599</v>
       </c>
       <c r="V2" t="n">
-        <v>595.4170576040024</v>
+        <v>363.9162123674373</v>
       </c>
       <c r="W2" t="n">
-        <v>595.4170576040024</v>
+        <v>363.9162123674373</v>
       </c>
       <c r="X2" t="n">
-        <v>595.4170576040024</v>
+        <v>363.9162123674373</v>
       </c>
       <c r="Y2" t="n">
-        <v>595.4170576040024</v>
+        <v>84.97023893071457</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.7472568676422</v>
+        <v>345.4799600385667</v>
       </c>
       <c r="C3" t="n">
-        <v>160.7472568676422</v>
+        <v>171.0269307574397</v>
       </c>
       <c r="D3" t="n">
-        <v>160.7472568676422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E3" t="n">
-        <v>160.7472568676422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F3" t="n">
-        <v>160.7472568676422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G3" t="n">
         <v>22.09252109618843</v>
@@ -4407,25 +4407,25 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318534</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>165.799003153448</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>288.9361218459457</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="N3" t="n">
-        <v>562.3310704112776</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945614</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4434,25 +4434,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="T3" t="n">
-        <v>902.746154837531</v>
+        <v>730.7421420887096</v>
       </c>
       <c r="U3" t="n">
-        <v>674.5275424716787</v>
+        <v>721.5467972641675</v>
       </c>
       <c r="V3" t="n">
-        <v>439.3754342399359</v>
+        <v>721.5467972641675</v>
       </c>
       <c r="W3" t="n">
-        <v>439.3754342399359</v>
+        <v>721.5467972641675</v>
       </c>
       <c r="X3" t="n">
-        <v>439.3754342399359</v>
+        <v>513.6952970586347</v>
       </c>
       <c r="Y3" t="n">
-        <v>231.615135474982</v>
+        <v>513.6952970586347</v>
       </c>
     </row>
     <row r="4">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1532.92829393712</v>
+        <v>423.0588993281417</v>
       </c>
       <c r="C5" t="n">
-        <v>1532.92829393712</v>
+        <v>423.0588993281417</v>
       </c>
       <c r="D5" t="n">
-        <v>1174.662595330369</v>
+        <v>64.79320072139119</v>
       </c>
       <c r="E5" t="n">
-        <v>1174.662595330369</v>
+        <v>64.79320072139119</v>
       </c>
       <c r="F5" t="n">
-        <v>964.8848757982322</v>
+        <v>57.84769997218772</v>
       </c>
       <c r="G5" t="n">
-        <v>546.4633025970624</v>
+        <v>43.46653081142199</v>
       </c>
       <c r="H5" t="n">
-        <v>214.5804958092791</v>
+        <v>43.46653081142199</v>
       </c>
       <c r="I5" t="n">
-        <v>43.46653081142198</v>
+        <v>43.46653081142199</v>
       </c>
       <c r="J5" t="n">
         <v>121.1553060308217</v>
@@ -4571,7 +4571,7 @@
         <v>358.3354455949535</v>
       </c>
       <c r="L5" t="n">
-        <v>704.8550091690688</v>
+        <v>704.8550091690686</v>
       </c>
       <c r="M5" t="n">
         <v>1107.031336290146</v>
@@ -4592,25 +4592,25 @@
         <v>2173.326540571099</v>
       </c>
       <c r="S5" t="n">
-        <v>2173.326540571099</v>
+        <v>1986.71773068368</v>
       </c>
       <c r="T5" t="n">
-        <v>2173.326540571099</v>
+        <v>1766.079196933309</v>
       </c>
       <c r="U5" t="n">
-        <v>1919.528134001242</v>
+        <v>1512.280790363452</v>
       </c>
       <c r="V5" t="n">
-        <v>1919.528134001242</v>
+        <v>1186.663989565033</v>
       </c>
       <c r="W5" t="n">
-        <v>1919.528134001242</v>
+        <v>1186.663989565033</v>
       </c>
       <c r="X5" t="n">
-        <v>1919.528134001242</v>
+        <v>813.1982313039534</v>
       </c>
       <c r="Y5" t="n">
-        <v>1919.528134001242</v>
+        <v>423.0588993281417</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>989.0646753762522</v>
+        <v>810.7810217069538</v>
       </c>
       <c r="C6" t="n">
-        <v>814.6116460951253</v>
+        <v>636.3279924258268</v>
       </c>
       <c r="D6" t="n">
-        <v>665.677236433874</v>
+        <v>487.3935827645756</v>
       </c>
       <c r="E6" t="n">
-        <v>506.4397814284185</v>
+        <v>328.1561277591201</v>
       </c>
       <c r="F6" t="n">
-        <v>359.9052234553035</v>
+        <v>181.621569786005</v>
       </c>
       <c r="G6" t="n">
-        <v>221.7501844807205</v>
+        <v>43.46653081142199</v>
       </c>
       <c r="H6" t="n">
-        <v>113.941933743777</v>
+        <v>43.46653081142199</v>
       </c>
       <c r="I6" t="n">
-        <v>43.46653081142198</v>
+        <v>43.46653081142199</v>
       </c>
       <c r="J6" t="n">
-        <v>43.46653081142198</v>
+        <v>96.04405342770204</v>
       </c>
       <c r="K6" t="n">
-        <v>259.9507345020447</v>
+        <v>312.5282571183248</v>
       </c>
       <c r="L6" t="n">
-        <v>612.4448584609779</v>
+        <v>665.0223810772582</v>
       </c>
       <c r="M6" t="n">
-        <v>1075.768096687641</v>
+        <v>867.1760305969997</v>
       </c>
       <c r="N6" t="n">
-        <v>1567.061135756297</v>
+        <v>1358.469069665656</v>
       </c>
       <c r="O6" t="n">
-        <v>1882.921110314018</v>
+        <v>1741.490540276432</v>
       </c>
       <c r="P6" t="n">
-        <v>2173.326540571099</v>
+        <v>2031.895970533513</v>
       </c>
       <c r="Q6" t="n">
         <v>2173.326540571099</v>
       </c>
       <c r="R6" t="n">
-        <v>2107.906278160376</v>
+        <v>2107.906278160377</v>
       </c>
       <c r="S6" t="n">
-        <v>2107.906278160376</v>
+        <v>1945.183914248169</v>
       </c>
       <c r="T6" t="n">
-        <v>1908.040506944294</v>
+        <v>1745.318143032087</v>
       </c>
       <c r="U6" t="n">
-        <v>1679.854769367709</v>
+        <v>1517.132405455502</v>
       </c>
       <c r="V6" t="n">
-        <v>1679.854769367709</v>
+        <v>1441.085215660756</v>
       </c>
       <c r="W6" t="n">
-        <v>1425.617412639508</v>
+        <v>1186.847858932555</v>
       </c>
       <c r="X6" t="n">
-        <v>1365.040311161274</v>
+        <v>978.9963587270217</v>
       </c>
       <c r="Y6" t="n">
-        <v>1157.28001239632</v>
+        <v>978.9963587270217</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>333.8835988768406</v>
+        <v>212.4027137393289</v>
       </c>
       <c r="C7" t="n">
-        <v>333.8835988768406</v>
+        <v>43.46653081142199</v>
       </c>
       <c r="D7" t="n">
-        <v>333.8835988768406</v>
+        <v>43.46653081142199</v>
       </c>
       <c r="E7" t="n">
-        <v>185.9705052944475</v>
+        <v>43.46653081142199</v>
       </c>
       <c r="F7" t="n">
-        <v>185.9705052944475</v>
+        <v>43.46653081142199</v>
       </c>
       <c r="G7" t="n">
-        <v>185.9705052944475</v>
+        <v>43.46653081142199</v>
       </c>
       <c r="H7" t="n">
-        <v>185.9705052944475</v>
+        <v>43.46653081142199</v>
       </c>
       <c r="I7" t="n">
-        <v>43.46653081142198</v>
+        <v>43.46653081142199</v>
       </c>
       <c r="J7" t="n">
-        <v>43.46653081142198</v>
+        <v>43.46653081142199</v>
       </c>
       <c r="K7" t="n">
-        <v>76.38696509486903</v>
+        <v>76.38696509486908</v>
       </c>
       <c r="L7" t="n">
-        <v>174.0402214718134</v>
+        <v>174.0402214718135</v>
       </c>
       <c r="M7" t="n">
-        <v>287.3910114189368</v>
+        <v>287.3910114189371</v>
       </c>
       <c r="N7" t="n">
-        <v>403.4811893544436</v>
+        <v>403.4811893544439</v>
       </c>
       <c r="O7" t="n">
-        <v>494.6929629031749</v>
+        <v>494.6929629031753</v>
       </c>
       <c r="P7" t="n">
-        <v>549.2197102660306</v>
+        <v>549.2197102660309</v>
       </c>
       <c r="Q7" t="n">
-        <v>549.2197102660306</v>
+        <v>549.2197102660309</v>
       </c>
       <c r="R7" t="n">
-        <v>549.2197102660306</v>
+        <v>549.2197102660309</v>
       </c>
       <c r="S7" t="n">
-        <v>549.2197102660306</v>
+        <v>549.2197102660309</v>
       </c>
       <c r="T7" t="n">
-        <v>549.2197102660306</v>
+        <v>549.2197102660309</v>
       </c>
       <c r="U7" t="n">
-        <v>549.2197102660306</v>
+        <v>501.8198837762895</v>
       </c>
       <c r="V7" t="n">
-        <v>549.2197102660306</v>
+        <v>501.8198837762895</v>
       </c>
       <c r="W7" t="n">
-        <v>333.8835988768406</v>
+        <v>212.4027137393289</v>
       </c>
       <c r="X7" t="n">
-        <v>333.8835988768406</v>
+        <v>212.4027137393289</v>
       </c>
       <c r="Y7" t="n">
-        <v>333.8835988768406</v>
+        <v>212.4027137393289</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.97540443929</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="C8" t="n">
-        <v>1172.012887498878</v>
+        <v>1701.754562310252</v>
       </c>
       <c r="D8" t="n">
-        <v>813.747188892128</v>
+        <v>1701.754562310252</v>
       </c>
       <c r="E8" t="n">
-        <v>427.9589362938837</v>
+        <v>1315.966309712008</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>1914.44116270037</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>1540.97540443929</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y8" t="n">
-        <v>1540.97540443929</v>
+        <v>2070.717079250664</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.535689181137</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>704.8686422172635</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V10" t="n">
-        <v>450.1841540113767</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W10" t="n">
-        <v>450.1841540113767</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X10" t="n">
-        <v>450.1841540113767</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y10" t="n">
-        <v>450.1841540113767</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2327.198405441902</v>
+        <v>2373.275997665211</v>
       </c>
       <c r="C11" t="n">
-        <v>1958.23588850149</v>
+        <v>2004.313480724799</v>
       </c>
       <c r="D11" t="n">
         <v>1646.047782118048</v>
@@ -5039,28 +5039,28 @@
         <v>94.62067542342893</v>
       </c>
       <c r="J11" t="n">
-        <v>450.9054554028074</v>
+        <v>283.4998063824544</v>
       </c>
       <c r="K11" t="n">
-        <v>784.7248290926539</v>
+        <v>938.2231385177539</v>
       </c>
       <c r="L11" t="n">
-        <v>1649.243644746009</v>
+        <v>1802.741954171109</v>
       </c>
       <c r="M11" t="n">
-        <v>2602.212509113547</v>
+        <v>2781.292257000937</v>
       </c>
       <c r="N11" t="n">
-        <v>3148.991326172329</v>
+        <v>3328.07107405972</v>
       </c>
       <c r="O11" t="n">
-        <v>4028.955976501784</v>
+        <v>3963.896720827531</v>
       </c>
       <c r="P11" t="n">
-        <v>4423.730342858962</v>
+        <v>4358.671087184709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4672.016704614644</v>
+        <v>4606.957448940391</v>
       </c>
       <c r="R11" t="n">
         <v>4731.033771171446</v>
@@ -5078,13 +5078,13 @@
         <v>3830.17199101303</v>
       </c>
       <c r="W11" t="n">
-        <v>3477.403335742915</v>
+        <v>3523.480927966224</v>
       </c>
       <c r="X11" t="n">
-        <v>3103.937577481835</v>
+        <v>3150.015169705144</v>
       </c>
       <c r="Y11" t="n">
-        <v>2713.798245506024</v>
+        <v>2759.875837729332</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>969.6524134723536</v>
+        <v>969.652413472355</v>
       </c>
       <c r="C12" t="n">
-        <v>795.1993841912266</v>
+        <v>795.199384191228</v>
       </c>
       <c r="D12" t="n">
-        <v>646.2649745299755</v>
+        <v>646.2649745299768</v>
       </c>
       <c r="E12" t="n">
-        <v>487.0275195245199</v>
+        <v>487.0275195245213</v>
       </c>
       <c r="F12" t="n">
-        <v>340.492961551405</v>
+        <v>340.4929615514063</v>
       </c>
       <c r="G12" t="n">
-        <v>204.1298613840238</v>
+        <v>204.1298613840244</v>
       </c>
       <c r="H12" t="n">
         <v>113.6279670218914</v>
@@ -5118,52 +5118,52 @@
         <v>94.62067542342893</v>
       </c>
       <c r="J12" t="n">
-        <v>188.2979449140461</v>
+        <v>188.2979449140466</v>
       </c>
       <c r="K12" t="n">
-        <v>426.562143894393</v>
+        <v>426.5621438943939</v>
       </c>
       <c r="L12" t="n">
-        <v>793.2603042070585</v>
+        <v>793.2603042070596</v>
       </c>
       <c r="M12" t="n">
-        <v>1240.536629429374</v>
+        <v>1240.536629429375</v>
       </c>
       <c r="N12" t="n">
-        <v>1714.059672983829</v>
+        <v>1714.05967298383</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.020952401884</v>
+        <v>2125.020952401885</v>
       </c>
       <c r="P12" t="n">
-        <v>2435.520543877987</v>
+        <v>2435.520543877988</v>
       </c>
       <c r="Q12" t="n">
-        <v>2593.162101524586</v>
+        <v>2593.162101524588</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.017748117102</v>
+        <v>2593.017748117103</v>
       </c>
       <c r="S12" t="n">
-        <v>2463.579861610582</v>
+        <v>2463.579861610583</v>
       </c>
       <c r="T12" t="n">
-        <v>2270.936861288437</v>
+        <v>2270.936861288439</v>
       </c>
       <c r="U12" t="n">
-        <v>2042.869014422853</v>
+        <v>2042.869014422854</v>
       </c>
       <c r="V12" t="n">
-        <v>1807.71690619111</v>
+        <v>1807.716906191112</v>
       </c>
       <c r="W12" t="n">
-        <v>1553.479549462908</v>
+        <v>1553.47954946291</v>
       </c>
       <c r="X12" t="n">
-        <v>1345.628049257376</v>
+        <v>1345.628049257377</v>
       </c>
       <c r="Y12" t="n">
-        <v>1137.867750492422</v>
+        <v>1137.867750492423</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>438.2411965731187</v>
+        <v>618.915625116415</v>
       </c>
       <c r="C13" t="n">
-        <v>269.3050136452118</v>
+        <v>449.9794421885081</v>
       </c>
       <c r="D13" t="n">
-        <v>269.3050136452118</v>
+        <v>449.9794421885081</v>
       </c>
       <c r="E13" t="n">
-        <v>121.3919200628187</v>
+        <v>302.066348606115</v>
       </c>
       <c r="F13" t="n">
-        <v>121.3919200628187</v>
+        <v>302.066348606115</v>
       </c>
       <c r="G13" t="n">
-        <v>121.3919200628187</v>
+        <v>240.8378622055712</v>
       </c>
       <c r="H13" t="n">
         <v>94.62067542342893</v>
@@ -5227,22 +5227,22 @@
         <v>1673.886765664093</v>
       </c>
       <c r="T13" t="n">
-        <v>1673.886765664093</v>
+        <v>1452.120150233619</v>
       </c>
       <c r="U13" t="n">
-        <v>1384.783898789736</v>
+        <v>1163.017283359262</v>
       </c>
       <c r="V13" t="n">
-        <v>1130.099410583849</v>
+        <v>908.3327951533755</v>
       </c>
       <c r="W13" t="n">
-        <v>840.6822405468886</v>
+        <v>618.915625116415</v>
       </c>
       <c r="X13" t="n">
-        <v>840.6822405468886</v>
+        <v>618.915625116415</v>
       </c>
       <c r="Y13" t="n">
-        <v>619.8896614033584</v>
+        <v>618.915625116415</v>
       </c>
     </row>
     <row r="14">
@@ -5279,25 +5279,25 @@
         <v>333.2533857163364</v>
       </c>
       <c r="K14" t="n">
-        <v>1062.544435988189</v>
+        <v>741.6404775427362</v>
       </c>
       <c r="L14" t="n">
-        <v>1679.696885743918</v>
+        <v>1285.182538868219</v>
       </c>
       <c r="M14" t="n">
-        <v>2316.161595755662</v>
+        <v>2366.665647037868</v>
       </c>
       <c r="N14" t="n">
-        <v>2967.538778557598</v>
+        <v>3242.789874985156</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.280520147744</v>
+        <v>3844.531616575303</v>
       </c>
       <c r="P14" t="n">
-        <v>4048.35217394876</v>
+        <v>4323.603270376319</v>
       </c>
       <c r="Q14" t="n">
-        <v>4570.134128681395</v>
+        <v>4635.193384355648</v>
       </c>
       <c r="R14" t="n">
         <v>4731.033771171446</v>
@@ -5355,28 +5355,28 @@
         <v>94.62067542342893</v>
       </c>
       <c r="J15" t="n">
-        <v>217.9308359191656</v>
+        <v>197.705953022064</v>
       </c>
       <c r="K15" t="n">
-        <v>506.8423654846982</v>
+        <v>486.6174825875966</v>
       </c>
       <c r="L15" t="n">
-        <v>941.6421120379482</v>
+        <v>921.4172291408466</v>
       </c>
       <c r="M15" t="n">
-        <v>1468.38977625872</v>
+        <v>1448.164893361619</v>
       </c>
       <c r="N15" t="n">
-        <v>2023.48752868057</v>
+        <v>2003.262645783469</v>
       </c>
       <c r="O15" t="n">
-        <v>2023.48752868057</v>
+        <v>2003.262645783469</v>
       </c>
       <c r="P15" t="n">
-        <v>2393.880198870795</v>
+        <v>2373.655315973693</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.001580556453</v>
+        <v>2571.333810615465</v>
       </c>
       <c r="R15" t="n">
         <v>2571.333810615465</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>412.1718602232776</v>
+        <v>448.7146896109865</v>
       </c>
       <c r="C16" t="n">
-        <v>412.1718602232776</v>
+        <v>448.7146896109865</v>
       </c>
       <c r="D16" t="n">
-        <v>262.0552208109418</v>
+        <v>298.5980501986508</v>
       </c>
       <c r="E16" t="n">
-        <v>262.0552208109418</v>
+        <v>298.5980501986508</v>
       </c>
       <c r="F16" t="n">
-        <v>262.0552208109418</v>
+        <v>151.7081027007404</v>
       </c>
       <c r="G16" t="n">
-        <v>94.62067542342893</v>
+        <v>151.7081027007404</v>
       </c>
       <c r="H16" t="n">
         <v>94.62067542342893</v>
@@ -5458,28 +5458,28 @@
         <v>2216.084398034217</v>
       </c>
       <c r="R16" t="n">
-        <v>2216.084398034217</v>
+        <v>2138.317290446302</v>
       </c>
       <c r="S16" t="n">
-        <v>2029.074098431966</v>
+        <v>1951.306990844052</v>
       </c>
       <c r="T16" t="n">
-        <v>1808.453818290138</v>
+        <v>1730.686710702223</v>
       </c>
       <c r="U16" t="n">
-        <v>1519.365585483296</v>
+        <v>1441.598477895382</v>
       </c>
       <c r="V16" t="n">
-        <v>1264.681097277409</v>
+        <v>1186.913989689495</v>
       </c>
       <c r="W16" t="n">
-        <v>975.2639272404488</v>
+        <v>897.496819652534</v>
       </c>
       <c r="X16" t="n">
-        <v>747.2743763424314</v>
+        <v>669.5072687545166</v>
       </c>
       <c r="Y16" t="n">
-        <v>526.4817971989013</v>
+        <v>448.7146896109865</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2343.493893103942</v>
+        <v>2343.493893103941</v>
       </c>
       <c r="C17" t="n">
-        <v>1974.531376163531</v>
+        <v>1974.53137616353</v>
       </c>
       <c r="D17" t="n">
         <v>1616.26567755678</v>
@@ -5501,7 +5501,7 @@
         <v>1230.477424958536</v>
       </c>
       <c r="F17" t="n">
-        <v>819.4915201689284</v>
+        <v>819.4915201689278</v>
       </c>
       <c r="G17" t="n">
         <v>405.0171793059801</v>
@@ -5513,22 +5513,22 @@
         <v>94.62067542342893</v>
       </c>
       <c r="J17" t="n">
-        <v>500.6590347366895</v>
+        <v>333.2533857163364</v>
       </c>
       <c r="K17" t="n">
-        <v>1229.950085008542</v>
+        <v>1062.544435988189</v>
       </c>
       <c r="L17" t="n">
-        <v>1773.492146334026</v>
+        <v>1954.947982171476</v>
       </c>
       <c r="M17" t="n">
-        <v>2409.95685634577</v>
+        <v>2591.41269218322</v>
       </c>
       <c r="N17" t="n">
-        <v>3061.334039147705</v>
+        <v>3242.789874985156</v>
       </c>
       <c r="O17" t="n">
-        <v>3663.075780737852</v>
+        <v>3844.531616575303</v>
       </c>
       <c r="P17" t="n">
         <v>4323.603270376319</v>
@@ -5540,25 +5540,25 @@
         <v>4731.033771171446</v>
       </c>
       <c r="S17" t="n">
-        <v>4634.372518191247</v>
+        <v>4634.372518191246</v>
       </c>
       <c r="T17" t="n">
-        <v>4431.01299400144</v>
+        <v>4431.012994001439</v>
       </c>
       <c r="U17" t="n">
-        <v>4177.530366018641</v>
+        <v>4177.53036601864</v>
       </c>
       <c r="V17" t="n">
-        <v>3846.46747867507</v>
+        <v>3846.467478675069</v>
       </c>
       <c r="W17" t="n">
-        <v>3493.698823404956</v>
+        <v>3493.698823404955</v>
       </c>
       <c r="X17" t="n">
-        <v>3120.233065143876</v>
+        <v>3120.233065143875</v>
       </c>
       <c r="Y17" t="n">
-        <v>2730.093733168064</v>
+        <v>2730.093733168063</v>
       </c>
     </row>
     <row r="18">
@@ -5592,19 +5592,19 @@
         <v>94.62067542342893</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62067542342893</v>
+        <v>217.9308359191656</v>
       </c>
       <c r="K18" t="n">
-        <v>383.5322049889616</v>
+        <v>506.8423654846982</v>
       </c>
       <c r="L18" t="n">
-        <v>416.4987979630828</v>
+        <v>941.6421120379482</v>
       </c>
       <c r="M18" t="n">
-        <v>943.246462183855</v>
+        <v>1468.38977625872</v>
       </c>
       <c r="N18" t="n">
-        <v>1498.344214605705</v>
+        <v>1983.930415724457</v>
       </c>
       <c r="O18" t="n">
         <v>1983.930415724457</v>
@@ -5653,7 +5653,7 @@
         <v>98.13004185283987</v>
       </c>
       <c r="D19" t="n">
-        <v>98.13004185283987</v>
+        <v>94.62067542342893</v>
       </c>
       <c r="E19" t="n">
         <v>94.62067542342893</v>
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2343.493893103941</v>
+        <v>2343.493893103942</v>
       </c>
       <c r="C20" t="n">
-        <v>1974.53137616353</v>
+        <v>1974.531376163531</v>
       </c>
       <c r="D20" t="n">
         <v>1616.26567755678</v>
@@ -5738,10 +5738,10 @@
         <v>1230.477424958536</v>
       </c>
       <c r="F20" t="n">
-        <v>819.4915201689282</v>
+        <v>819.4915201689284</v>
       </c>
       <c r="G20" t="n">
-        <v>405.0171793059799</v>
+        <v>405.01717930598</v>
       </c>
       <c r="H20" t="n">
         <v>113.5589657020064</v>
@@ -5759,43 +5759,43 @@
         <v>1285.182538868219</v>
       </c>
       <c r="M20" t="n">
-        <v>2093.379981341103</v>
+        <v>2214.420512733102</v>
       </c>
       <c r="N20" t="n">
-        <v>3177.730619310903</v>
+        <v>2865.797695535038</v>
       </c>
       <c r="O20" t="n">
-        <v>3779.47236090105</v>
+        <v>3844.531616575303</v>
       </c>
       <c r="P20" t="n">
-        <v>4258.544014702065</v>
+        <v>4323.603270376319</v>
       </c>
       <c r="Q20" t="n">
-        <v>4570.134128681395</v>
+        <v>4635.193384355648</v>
       </c>
       <c r="R20" t="n">
         <v>4731.033771171446</v>
       </c>
       <c r="S20" t="n">
-        <v>4634.372518191246</v>
+        <v>4634.372518191247</v>
       </c>
       <c r="T20" t="n">
-        <v>4431.012994001439</v>
+        <v>4431.01299400144</v>
       </c>
       <c r="U20" t="n">
-        <v>4177.53036601864</v>
+        <v>4177.530366018641</v>
       </c>
       <c r="V20" t="n">
-        <v>3846.467478675069</v>
+        <v>3846.46747867507</v>
       </c>
       <c r="W20" t="n">
-        <v>3493.698823404955</v>
+        <v>3493.698823404956</v>
       </c>
       <c r="X20" t="n">
-        <v>3120.233065143875</v>
+        <v>3120.233065143876</v>
       </c>
       <c r="Y20" t="n">
-        <v>2730.093733168063</v>
+        <v>2730.093733168064</v>
       </c>
     </row>
     <row r="21">
@@ -5835,19 +5835,19 @@
         <v>383.5322049889616</v>
       </c>
       <c r="L21" t="n">
-        <v>818.3319515422115</v>
+        <v>614.1772926048542</v>
       </c>
       <c r="M21" t="n">
-        <v>1345.079615762984</v>
+        <v>1140.924956825626</v>
       </c>
       <c r="N21" t="n">
-        <v>1900.177368184834</v>
+        <v>1696.022709247477</v>
       </c>
       <c r="O21" t="n">
-        <v>1983.930415724457</v>
+        <v>2181.608910366228</v>
       </c>
       <c r="P21" t="n">
-        <v>2354.323085914681</v>
+        <v>2552.001580556453</v>
       </c>
       <c r="Q21" t="n">
         <v>2552.001580556453</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>561.5865913460647</v>
+        <v>411.469951933729</v>
       </c>
       <c r="C22" t="n">
-        <v>392.6504084181578</v>
+        <v>242.5337690058221</v>
       </c>
       <c r="D22" t="n">
         <v>242.5337690058221</v>
@@ -5944,16 +5944,16 @@
         <v>1441.598477895382</v>
       </c>
       <c r="V22" t="n">
-        <v>1186.913989689495</v>
+        <v>1331.317716842477</v>
       </c>
       <c r="W22" t="n">
-        <v>897.496819652534</v>
+        <v>1041.900546805516</v>
       </c>
       <c r="X22" t="n">
-        <v>669.5072687545166</v>
+        <v>813.9109959074988</v>
       </c>
       <c r="Y22" t="n">
-        <v>561.5865913460647</v>
+        <v>593.1184167639686</v>
       </c>
     </row>
     <row r="23">
@@ -5993,22 +5993,22 @@
         <v>741.6404775427362</v>
       </c>
       <c r="L23" t="n">
-        <v>1285.182538868219</v>
+        <v>1577.955802721358</v>
       </c>
       <c r="M23" t="n">
-        <v>1921.647248879963</v>
+        <v>2214.420512733102</v>
       </c>
       <c r="N23" t="n">
-        <v>3005.997886849763</v>
+        <v>2865.797695535038</v>
       </c>
       <c r="O23" t="n">
-        <v>3607.73962843991</v>
+        <v>3844.531616575303</v>
       </c>
       <c r="P23" t="n">
-        <v>4086.811282240926</v>
+        <v>4323.603270376319</v>
       </c>
       <c r="Q23" t="n">
-        <v>4608.593236973561</v>
+        <v>4635.193384355648</v>
       </c>
       <c r="R23" t="n">
         <v>4731.033771171446</v>
@@ -6069,19 +6069,19 @@
         <v>217.9308359191656</v>
       </c>
       <c r="K24" t="n">
-        <v>467.2852525285845</v>
+        <v>217.9308359191656</v>
       </c>
       <c r="L24" t="n">
-        <v>902.0849990818346</v>
+        <v>652.7305824724157</v>
       </c>
       <c r="M24" t="n">
-        <v>1428.832663302607</v>
+        <v>1179.478246693188</v>
       </c>
       <c r="N24" t="n">
-        <v>1983.930415724457</v>
+        <v>1734.575999115038</v>
       </c>
       <c r="O24" t="n">
-        <v>1983.930415724457</v>
+        <v>2220.162200233789</v>
       </c>
       <c r="P24" t="n">
         <v>2354.323085914681</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>941.5658005798236</v>
+        <v>448.7146896109865</v>
       </c>
       <c r="C25" t="n">
-        <v>772.6296176519168</v>
+        <v>279.7785066830796</v>
       </c>
       <c r="D25" t="n">
-        <v>622.512978239581</v>
+        <v>129.6618672707439</v>
       </c>
       <c r="E25" t="n">
-        <v>474.5998846571879</v>
+        <v>129.6618672707439</v>
       </c>
       <c r="F25" t="n">
-        <v>327.7099371592776</v>
+        <v>129.6618672707439</v>
       </c>
       <c r="G25" t="n">
-        <v>327.7099371592776</v>
+        <v>94.62067542342893</v>
       </c>
       <c r="H25" t="n">
-        <v>183.8781033820195</v>
+        <v>94.62067542342893</v>
       </c>
       <c r="I25" t="n">
         <v>94.62067542342893</v>
@@ -6172,25 +6172,25 @@
         <v>2138.317290446302</v>
       </c>
       <c r="S25" t="n">
-        <v>2138.317290446302</v>
+        <v>1951.306990844052</v>
       </c>
       <c r="T25" t="n">
-        <v>2138.317290446302</v>
+        <v>1730.686710702223</v>
       </c>
       <c r="U25" t="n">
-        <v>2116.098053694458</v>
+        <v>1441.598477895382</v>
       </c>
       <c r="V25" t="n">
-        <v>1861.413565488571</v>
+        <v>1186.913989689495</v>
       </c>
       <c r="W25" t="n">
-        <v>1571.996395451611</v>
+        <v>897.496819652534</v>
       </c>
       <c r="X25" t="n">
-        <v>1344.006844553593</v>
+        <v>669.5072687545166</v>
       </c>
       <c r="Y25" t="n">
-        <v>1123.214265410063</v>
+        <v>448.7146896109865</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2343.493893103944</v>
+        <v>2343.493893103942</v>
       </c>
       <c r="C26" t="n">
         <v>1974.531376163531</v>
@@ -6221,16 +6221,16 @@
         <v>113.5589657020064</v>
       </c>
       <c r="I26" t="n">
-        <v>94.62067542342895</v>
+        <v>94.62067542342893</v>
       </c>
       <c r="J26" t="n">
-        <v>333.2533857163365</v>
+        <v>333.2533857163364</v>
       </c>
       <c r="K26" t="n">
-        <v>741.6404775427363</v>
+        <v>741.6404775427362</v>
       </c>
       <c r="L26" t="n">
-        <v>1285.18253886822</v>
+        <v>1285.182538868219</v>
       </c>
       <c r="M26" t="n">
         <v>2366.665647037868</v>
@@ -6239,37 +6239,37 @@
         <v>3018.042829839803</v>
       </c>
       <c r="O26" t="n">
-        <v>3619.78457142995</v>
+        <v>3844.531616575303</v>
       </c>
       <c r="P26" t="n">
-        <v>4098.856225230966</v>
+        <v>4323.603270376319</v>
       </c>
       <c r="Q26" t="n">
-        <v>4570.134128681396</v>
+        <v>4635.193384355648</v>
       </c>
       <c r="R26" t="n">
-        <v>4731.033771171447</v>
+        <v>4731.033771171446</v>
       </c>
       <c r="S26" t="n">
-        <v>4634.372518191248</v>
+        <v>4634.372518191247</v>
       </c>
       <c r="T26" t="n">
-        <v>4431.012994001441</v>
+        <v>4431.01299400144</v>
       </c>
       <c r="U26" t="n">
-        <v>4177.530366018642</v>
+        <v>4177.530366018641</v>
       </c>
       <c r="V26" t="n">
-        <v>3846.467478675071</v>
+        <v>3846.46747867507</v>
       </c>
       <c r="W26" t="n">
-        <v>3493.698823404957</v>
+        <v>3493.698823404956</v>
       </c>
       <c r="X26" t="n">
-        <v>3120.233065143877</v>
+        <v>3120.233065143876</v>
       </c>
       <c r="Y26" t="n">
-        <v>2730.093733168065</v>
+        <v>2730.093733168064</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>102.609848736704</v>
       </c>
       <c r="I27" t="n">
-        <v>94.62067542342895</v>
+        <v>94.62067542342893</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62067542342895</v>
+        <v>217.9308359191656</v>
       </c>
       <c r="K27" t="n">
-        <v>383.5322049889616</v>
+        <v>217.9308359191656</v>
       </c>
       <c r="L27" t="n">
-        <v>818.3319515422115</v>
+        <v>652.7305824724157</v>
       </c>
       <c r="M27" t="n">
-        <v>1345.079615762984</v>
+        <v>943.246462183855</v>
       </c>
       <c r="N27" t="n">
-        <v>1900.177368184834</v>
+        <v>1498.344214605705</v>
       </c>
       <c r="O27" t="n">
-        <v>2385.763569303585</v>
+        <v>1983.930415724457</v>
       </c>
       <c r="P27" t="n">
-        <v>2385.763569303585</v>
+        <v>2354.323085914681</v>
       </c>
       <c r="Q27" t="n">
         <v>2552.001580556453</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>411.469951933729</v>
+        <v>267.0662247807468</v>
       </c>
       <c r="C28" t="n">
-        <v>242.5337690058221</v>
+        <v>267.0662247807468</v>
       </c>
       <c r="D28" t="n">
-        <v>242.5337690058221</v>
+        <v>116.9495853684111</v>
       </c>
       <c r="E28" t="n">
-        <v>94.62067542342895</v>
+        <v>116.9495853684111</v>
       </c>
       <c r="F28" t="n">
-        <v>94.62067542342895</v>
+        <v>94.62067542342893</v>
       </c>
       <c r="G28" t="n">
-        <v>94.62067542342895</v>
+        <v>94.62067542342893</v>
       </c>
       <c r="H28" t="n">
-        <v>94.62067542342895</v>
+        <v>94.62067542342893</v>
       </c>
       <c r="I28" t="n">
-        <v>94.62067542342895</v>
+        <v>94.62067542342893</v>
       </c>
       <c r="J28" t="n">
         <v>158.3340313894198</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2343.493893103943</v>
+        <v>2343.493893103942</v>
       </c>
       <c r="C29" t="n">
         <v>1974.531376163531</v>
@@ -6449,46 +6449,46 @@
         <v>1230.477424958536</v>
       </c>
       <c r="F29" t="n">
-        <v>819.4915201689284</v>
+        <v>819.4915201689283</v>
       </c>
       <c r="G29" t="n">
-        <v>405.0171793059801</v>
+        <v>405.0171793059799</v>
       </c>
       <c r="H29" t="n">
-        <v>113.5589657020065</v>
+        <v>113.5589657020064</v>
       </c>
       <c r="I29" t="n">
-        <v>94.62067542342895</v>
+        <v>94.62067542342893</v>
       </c>
       <c r="J29" t="n">
-        <v>333.2533857163365</v>
+        <v>333.2533857163364</v>
       </c>
       <c r="K29" t="n">
-        <v>741.6404775427363</v>
+        <v>741.6404775427362</v>
       </c>
       <c r="L29" t="n">
-        <v>1509.929584013573</v>
+        <v>1698.667141273165</v>
       </c>
       <c r="M29" t="n">
-        <v>2591.412692183221</v>
+        <v>2335.131851284909</v>
       </c>
       <c r="N29" t="n">
-        <v>3242.789874985157</v>
+        <v>2986.509034086845</v>
       </c>
       <c r="O29" t="n">
-        <v>3844.531616575304</v>
+        <v>3588.250775676992</v>
       </c>
       <c r="P29" t="n">
         <v>4323.603270376319</v>
       </c>
       <c r="Q29" t="n">
-        <v>4635.193384355649</v>
+        <v>4635.193384355648</v>
       </c>
       <c r="R29" t="n">
-        <v>4731.033771171447</v>
+        <v>4731.033771171446</v>
       </c>
       <c r="S29" t="n">
-        <v>4634.372518191248</v>
+        <v>4634.372518191247</v>
       </c>
       <c r="T29" t="n">
         <v>4431.01299400144</v>
@@ -6503,10 +6503,10 @@
         <v>3493.698823404956</v>
       </c>
       <c r="X29" t="n">
-        <v>3120.233065143877</v>
+        <v>3120.233065143876</v>
       </c>
       <c r="Y29" t="n">
-        <v>2730.093733168065</v>
+        <v>2730.093733168064</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>102.609848736704</v>
       </c>
       <c r="I30" t="n">
-        <v>94.62067542342895</v>
+        <v>94.62067542342893</v>
       </c>
       <c r="J30" t="n">
         <v>217.9308359191656</v>
@@ -6546,19 +6546,19 @@
         <v>506.8423654846982</v>
       </c>
       <c r="L30" t="n">
-        <v>941.6421120379482</v>
+        <v>506.8423654846982</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.924956825626</v>
+        <v>943.246462183855</v>
       </c>
       <c r="N30" t="n">
-        <v>1696.022709247477</v>
+        <v>1498.344214605705</v>
       </c>
       <c r="O30" t="n">
-        <v>2181.608910366228</v>
+        <v>1983.930415724457</v>
       </c>
       <c r="P30" t="n">
-        <v>2552.001580556453</v>
+        <v>2354.323085914681</v>
       </c>
       <c r="Q30" t="n">
         <v>2552.001580556453</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>646.7627594995203</v>
+        <v>531.8436319709122</v>
       </c>
       <c r="C31" t="n">
-        <v>477.8265765716134</v>
+        <v>389.4237165037324</v>
       </c>
       <c r="D31" t="n">
-        <v>327.7099371592776</v>
+        <v>389.4237165037324</v>
       </c>
       <c r="E31" t="n">
-        <v>327.7099371592776</v>
+        <v>241.5106229213393</v>
       </c>
       <c r="F31" t="n">
-        <v>327.7099371592776</v>
+        <v>94.62067542342893</v>
       </c>
       <c r="G31" t="n">
-        <v>327.7099371592776</v>
+        <v>94.62067542342893</v>
       </c>
       <c r="H31" t="n">
-        <v>183.8781033820195</v>
+        <v>94.62067542342893</v>
       </c>
       <c r="I31" t="n">
-        <v>94.62067542342895</v>
+        <v>94.62067542342893</v>
       </c>
       <c r="J31" t="n">
         <v>158.3340313894198</v>
@@ -6643,28 +6643,28 @@
         <v>2216.084398034217</v>
       </c>
       <c r="R31" t="n">
-        <v>2138.317290446302</v>
+        <v>2216.084398034217</v>
       </c>
       <c r="S31" t="n">
-        <v>1951.306990844052</v>
+        <v>2216.084398034217</v>
       </c>
       <c r="T31" t="n">
-        <v>1730.686710702223</v>
+        <v>1995.464117892389</v>
       </c>
       <c r="U31" t="n">
-        <v>1441.598477895382</v>
+        <v>1706.375885085547</v>
       </c>
       <c r="V31" t="n">
-        <v>1345.817945264738</v>
+        <v>1451.69139687966</v>
       </c>
       <c r="W31" t="n">
-        <v>1056.400775227777</v>
+        <v>1162.274226842699</v>
       </c>
       <c r="X31" t="n">
-        <v>828.41122432976</v>
+        <v>934.284675944682</v>
       </c>
       <c r="Y31" t="n">
-        <v>828.41122432976</v>
+        <v>713.4920968011519</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1095.118153136815</v>
       </c>
       <c r="F32" t="n">
-        <v>719.447091858608</v>
+        <v>719.4470918586078</v>
       </c>
       <c r="G32" t="n">
         <v>340.2875945070599</v>
@@ -6716,7 +6716,7 @@
         <v>3164.289722263104</v>
       </c>
       <c r="P32" t="n">
-        <v>3799.780719929196</v>
+        <v>3643.361376064119</v>
       </c>
       <c r="Q32" t="n">
         <v>4111.370833908525</v>
@@ -6731,7 +6731,7 @@
         <v>3977.820130577117</v>
       </c>
       <c r="U32" t="n">
-        <v>3759.652346105719</v>
+        <v>3759.652346105718</v>
       </c>
       <c r="V32" t="n">
         <v>3463.904302273548</v>
@@ -6786,19 +6786,19 @@
         <v>931.1656610290058</v>
       </c>
       <c r="M33" t="n">
-        <v>1457.913325249778</v>
+        <v>932.7700111749124</v>
       </c>
       <c r="N33" t="n">
-        <v>2013.011077671628</v>
+        <v>1487.867763596763</v>
       </c>
       <c r="O33" t="n">
-        <v>2498.59727879038</v>
+        <v>1973.453964715514</v>
       </c>
       <c r="P33" t="n">
-        <v>2498.59727879038</v>
+        <v>2343.846634905738</v>
       </c>
       <c r="Q33" t="n">
-        <v>2560.857359606522</v>
+        <v>2541.52512954751</v>
       </c>
       <c r="R33" t="n">
         <v>2560.857359606522</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>851.3199903785928</v>
+        <v>851.319990378593</v>
       </c>
       <c r="C34" t="n">
-        <v>717.698650962086</v>
+        <v>717.6986509620864</v>
       </c>
       <c r="D34" t="n">
-        <v>602.8968550611505</v>
+        <v>602.8968550611509</v>
       </c>
       <c r="E34" t="n">
-        <v>490.2986049901576</v>
+        <v>490.2986049901579</v>
       </c>
       <c r="F34" t="n">
-        <v>378.7235010036475</v>
+        <v>378.7235010036478</v>
       </c>
       <c r="G34" t="n">
-        <v>246.6037991275347</v>
+        <v>246.6037991275351</v>
       </c>
       <c r="H34" t="n">
         <v>138.0868088616768</v>
@@ -6856,13 +6856,13 @@
         <v>84.14422441448647</v>
       </c>
       <c r="J34" t="n">
-        <v>182.4696585060007</v>
+        <v>182.4696585060008</v>
       </c>
       <c r="K34" t="n">
-        <v>451.6191891668125</v>
+        <v>451.6191891668126</v>
       </c>
       <c r="L34" t="n">
-        <v>841.8848927217539</v>
+        <v>841.8848927217541</v>
       </c>
       <c r="M34" t="n">
         <v>1261.872975639197</v>
@@ -6874,19 +6874,19 @@
         <v>2049.241076176742</v>
       </c>
       <c r="P34" t="n">
-        <v>2348.263533184879</v>
+        <v>2348.263533184878</v>
       </c>
       <c r="Q34" t="n">
-        <v>2482.504572029462</v>
+        <v>2482.504572029461</v>
       </c>
       <c r="R34" t="n">
-        <v>2440.052307952947</v>
+        <v>2440.052307952946</v>
       </c>
       <c r="S34" t="n">
-        <v>2288.356851862096</v>
+        <v>2288.356851862097</v>
       </c>
       <c r="T34" t="n">
-        <v>2103.051415231668</v>
+        <v>2103.051415231669</v>
       </c>
       <c r="U34" t="n">
         <v>1849.278025936227</v>
@@ -6895,13 +6895,13 @@
         <v>1629.90838124174</v>
       </c>
       <c r="W34" t="n">
-        <v>1375.806054716179</v>
+        <v>1375.80605471618</v>
       </c>
       <c r="X34" t="n">
         <v>1183.131347329562</v>
       </c>
       <c r="Y34" t="n">
-        <v>997.6536116974323</v>
+        <v>997.6536116974326</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.190090748021</v>
+        <v>2102.190090748022</v>
       </c>
       <c r="C35" t="n">
-        <v>1768.542417319009</v>
+        <v>1768.542417319011</v>
       </c>
       <c r="D35" t="n">
-        <v>1445.591562223659</v>
+        <v>1445.59156222366</v>
       </c>
       <c r="E35" t="n">
-        <v>1095.118153136815</v>
+        <v>1095.118153136816</v>
       </c>
       <c r="F35" t="n">
-        <v>719.447091858608</v>
+        <v>719.4470918586088</v>
       </c>
       <c r="G35" t="n">
-        <v>340.2875945070599</v>
+        <v>340.28759450706</v>
       </c>
       <c r="H35" t="n">
-        <v>84.14422441448647</v>
+        <v>84.14422441448652</v>
       </c>
       <c r="I35" t="n">
-        <v>84.14422441448647</v>
+        <v>84.14422441448652</v>
       </c>
       <c r="J35" t="n">
         <v>322.776934707394</v>
       </c>
       <c r="K35" t="n">
-        <v>731.1640265337937</v>
+        <v>731.1640265337938</v>
       </c>
       <c r="L35" t="n">
         <v>1274.706087859277</v>
       </c>
       <c r="M35" t="n">
-        <v>2067.590141736098</v>
+        <v>2002.530886061847</v>
       </c>
       <c r="N35" t="n">
-        <v>2718.967324538034</v>
+        <v>2653.908068863782</v>
       </c>
       <c r="O35" t="n">
-        <v>3320.70906612818</v>
+        <v>3255.64981045393</v>
       </c>
       <c r="P35" t="n">
-        <v>3799.780719929196</v>
+        <v>3734.721464254945</v>
       </c>
       <c r="Q35" t="n">
-        <v>4111.370833908525</v>
+        <v>4046.311578234274</v>
       </c>
       <c r="R35" t="n">
-        <v>4207.211220724324</v>
+        <v>4207.211220724325</v>
       </c>
       <c r="S35" t="n">
-        <v>4145.864811255524</v>
+        <v>4145.864811255527</v>
       </c>
       <c r="T35" t="n">
-        <v>3977.820130577117</v>
+        <v>3977.820130577119</v>
       </c>
       <c r="U35" t="n">
-        <v>3759.652346105718</v>
+        <v>3759.65234610572</v>
       </c>
       <c r="V35" t="n">
-        <v>3463.904302273548</v>
+        <v>3463.904302273549</v>
       </c>
       <c r="W35" t="n">
-        <v>3146.450490514834</v>
+        <v>3146.450490514835</v>
       </c>
       <c r="X35" t="n">
         <v>2808.299575765155</v>
       </c>
       <c r="Y35" t="n">
-        <v>2453.475087300743</v>
+        <v>2453.475087300744</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>944.7471400466317</v>
+        <v>944.7471400466319</v>
       </c>
       <c r="C36" t="n">
-        <v>770.2941107655047</v>
+        <v>770.2941107655049</v>
       </c>
       <c r="D36" t="n">
-        <v>621.3597011042534</v>
+        <v>621.3597011042536</v>
       </c>
       <c r="E36" t="n">
-        <v>462.122246098798</v>
+        <v>462.1222460987981</v>
       </c>
       <c r="F36" t="n">
         <v>315.587688125683</v>
@@ -7008,43 +7008,43 @@
         <v>179.544604642253</v>
       </c>
       <c r="H36" t="n">
-        <v>92.13339772776152</v>
+        <v>92.13339772776156</v>
       </c>
       <c r="I36" t="n">
-        <v>84.14422441448647</v>
+        <v>84.14422441448652</v>
       </c>
       <c r="J36" t="n">
         <v>207.4543849102232</v>
       </c>
       <c r="K36" t="n">
-        <v>207.4543849102232</v>
+        <v>496.3659144757558</v>
       </c>
       <c r="L36" t="n">
-        <v>642.2541314634732</v>
+        <v>931.1656610290058</v>
       </c>
       <c r="M36" t="n">
-        <v>1169.001795684245</v>
+        <v>1457.913325249778</v>
       </c>
       <c r="N36" t="n">
-        <v>1487.867763596763</v>
+        <v>1507.199993655775</v>
       </c>
       <c r="O36" t="n">
-        <v>1973.453964715514</v>
+        <v>1992.786194774527</v>
       </c>
       <c r="P36" t="n">
-        <v>2343.846634905738</v>
+        <v>2363.178864964751</v>
       </c>
       <c r="Q36" t="n">
-        <v>2541.52512954751</v>
+        <v>2560.857359606523</v>
       </c>
       <c r="R36" t="n">
-        <v>2560.857359606522</v>
+        <v>2560.857359606523</v>
       </c>
       <c r="S36" t="n">
-        <v>2437.363642646214</v>
+        <v>2437.363642646215</v>
       </c>
       <c r="T36" t="n">
-        <v>2246.010534133507</v>
+        <v>2246.010534133508</v>
       </c>
       <c r="U36" t="n">
         <v>2017.963740997131</v>
@@ -7053,7 +7053,7 @@
         <v>1782.811632765388</v>
       </c>
       <c r="W36" t="n">
-        <v>1528.574276037186</v>
+        <v>1528.574276037187</v>
       </c>
       <c r="X36" t="n">
         <v>1320.722775831654</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>851.3199903785926</v>
+        <v>851.3199903785924</v>
       </c>
       <c r="C37" t="n">
-        <v>717.6986509620859</v>
+        <v>717.6986509620856</v>
       </c>
       <c r="D37" t="n">
-        <v>602.8968550611504</v>
+        <v>602.8968550611501</v>
       </c>
       <c r="E37" t="n">
-        <v>490.2986049901575</v>
+        <v>490.2986049901571</v>
       </c>
       <c r="F37" t="n">
-        <v>378.7235010036474</v>
+        <v>378.7235010036476</v>
       </c>
       <c r="G37" t="n">
-        <v>246.6037991275346</v>
+        <v>246.6037991275348</v>
       </c>
       <c r="H37" t="n">
-        <v>138.0868088616767</v>
+        <v>138.0868088616769</v>
       </c>
       <c r="I37" t="n">
-        <v>84.14422441448647</v>
+        <v>84.14422441448652</v>
       </c>
       <c r="J37" t="n">
         <v>182.4696585060007</v>
@@ -7099,10 +7099,10 @@
         <v>451.6191891668125</v>
       </c>
       <c r="L37" t="n">
-        <v>841.884892721754</v>
+        <v>841.8848927217539</v>
       </c>
       <c r="M37" t="n">
-        <v>1261.872975639198</v>
+        <v>1261.872975639197</v>
       </c>
       <c r="N37" t="n">
         <v>1678.132294942266</v>
@@ -7111,13 +7111,13 @@
         <v>2049.241076176742</v>
       </c>
       <c r="P37" t="n">
-        <v>2348.263533184879</v>
+        <v>2348.263533184878</v>
       </c>
       <c r="Q37" t="n">
-        <v>2482.504572029462</v>
+        <v>2482.504572029461</v>
       </c>
       <c r="R37" t="n">
-        <v>2440.052307952947</v>
+        <v>2440.052307952946</v>
       </c>
       <c r="S37" t="n">
         <v>2288.356851862096</v>
@@ -7129,7 +7129,7 @@
         <v>1849.278025936226</v>
       </c>
       <c r="V37" t="n">
-        <v>1629.908381241739</v>
+        <v>1629.90838124174</v>
       </c>
       <c r="W37" t="n">
         <v>1375.806054716179</v>
@@ -7138,7 +7138,7 @@
         <v>1183.131347329562</v>
       </c>
       <c r="Y37" t="n">
-        <v>997.6536116974321</v>
+        <v>997.6536116974319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.19009074802</v>
+        <v>2102.190090748023</v>
       </c>
       <c r="C38" t="n">
-        <v>1768.542417319009</v>
+        <v>1768.542417319012</v>
       </c>
       <c r="D38" t="n">
-        <v>1445.591562223659</v>
+        <v>1445.591562223661</v>
       </c>
       <c r="E38" t="n">
-        <v>1095.118153136815</v>
+        <v>1095.118153136817</v>
       </c>
       <c r="F38" t="n">
-        <v>719.447091858608</v>
+        <v>719.4470918586096</v>
       </c>
       <c r="G38" t="n">
-        <v>340.28759450706</v>
+        <v>340.2875945070614</v>
       </c>
       <c r="H38" t="n">
-        <v>84.14422441448647</v>
+        <v>84.14422441448789</v>
       </c>
       <c r="I38" t="n">
-        <v>84.14422441448647</v>
+        <v>84.14422441448652</v>
       </c>
       <c r="J38" t="n">
         <v>322.776934707394</v>
       </c>
       <c r="K38" t="n">
-        <v>887.5833703988711</v>
+        <v>731.1640265337938</v>
       </c>
       <c r="L38" t="n">
-        <v>1431.125431724354</v>
+        <v>1274.706087859277</v>
       </c>
       <c r="M38" t="n">
-        <v>2067.590141736098</v>
+        <v>1911.170797871021</v>
       </c>
       <c r="N38" t="n">
-        <v>2718.967324538034</v>
+        <v>2718.967324538035</v>
       </c>
       <c r="O38" t="n">
-        <v>3320.70906612818</v>
+        <v>3320.709066128182</v>
       </c>
       <c r="P38" t="n">
-        <v>3799.780719929196</v>
+        <v>3799.780719929198</v>
       </c>
       <c r="Q38" t="n">
-        <v>4111.370833908525</v>
+        <v>4111.370833908527</v>
       </c>
       <c r="R38" t="n">
-        <v>4207.211220724324</v>
+        <v>4207.211220724325</v>
       </c>
       <c r="S38" t="n">
-        <v>4145.864811255525</v>
+        <v>4145.864811255526</v>
       </c>
       <c r="T38" t="n">
-        <v>3977.820130577118</v>
+        <v>3977.820130577119</v>
       </c>
       <c r="U38" t="n">
-        <v>3759.652346105718</v>
+        <v>3759.65234610572</v>
       </c>
       <c r="V38" t="n">
-        <v>3463.904302273547</v>
+        <v>3463.90430227355</v>
       </c>
       <c r="W38" t="n">
-        <v>3146.450490514833</v>
+        <v>3146.450490514836</v>
       </c>
       <c r="X38" t="n">
-        <v>2808.299575765153</v>
+        <v>2808.299575765156</v>
       </c>
       <c r="Y38" t="n">
-        <v>2453.475087300742</v>
+        <v>2453.475087300745</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>944.7471400466317</v>
+        <v>944.7471400466319</v>
       </c>
       <c r="C39" t="n">
-        <v>770.2941107655047</v>
+        <v>770.2941107655049</v>
       </c>
       <c r="D39" t="n">
-        <v>621.3597011042534</v>
+        <v>621.3597011042536</v>
       </c>
       <c r="E39" t="n">
-        <v>462.122246098798</v>
+        <v>462.1222460987981</v>
       </c>
       <c r="F39" t="n">
         <v>315.587688125683</v>
@@ -7245,43 +7245,43 @@
         <v>179.544604642253</v>
       </c>
       <c r="H39" t="n">
-        <v>92.13339772776152</v>
+        <v>92.13339772776156</v>
       </c>
       <c r="I39" t="n">
-        <v>84.14422441448647</v>
+        <v>84.14422441448652</v>
       </c>
       <c r="J39" t="n">
         <v>207.4543849102232</v>
       </c>
       <c r="K39" t="n">
-        <v>360.9475006501263</v>
+        <v>496.3659144757558</v>
       </c>
       <c r="L39" t="n">
-        <v>795.7472472033763</v>
+        <v>931.1656610290058</v>
       </c>
       <c r="M39" t="n">
-        <v>1322.494911424149</v>
+        <v>932.7700111749128</v>
       </c>
       <c r="N39" t="n">
-        <v>1877.592663845999</v>
+        <v>1487.867763596763</v>
       </c>
       <c r="O39" t="n">
-        <v>2363.178864964751</v>
+        <v>1973.453964715515</v>
       </c>
       <c r="P39" t="n">
-        <v>2363.178864964751</v>
+        <v>2343.846634905739</v>
       </c>
       <c r="Q39" t="n">
-        <v>2560.857359606522</v>
+        <v>2541.52512954751</v>
       </c>
       <c r="R39" t="n">
-        <v>2560.857359606522</v>
+        <v>2560.857359606523</v>
       </c>
       <c r="S39" t="n">
-        <v>2437.363642646214</v>
+        <v>2437.363642646215</v>
       </c>
       <c r="T39" t="n">
-        <v>2246.010534133507</v>
+        <v>2246.010534133508</v>
       </c>
       <c r="U39" t="n">
         <v>2017.963740997131</v>
@@ -7290,7 +7290,7 @@
         <v>1782.811632765388</v>
       </c>
       <c r="W39" t="n">
-        <v>1528.574276037186</v>
+        <v>1528.574276037187</v>
       </c>
       <c r="X39" t="n">
         <v>1320.722775831654</v>
@@ -7327,16 +7327,16 @@
         <v>138.0868088616768</v>
       </c>
       <c r="I40" t="n">
-        <v>84.14422441448647</v>
+        <v>84.14422441448652</v>
       </c>
       <c r="J40" t="n">
         <v>182.4696585060007</v>
       </c>
       <c r="K40" t="n">
-        <v>451.6191891668125</v>
+        <v>451.6191891668127</v>
       </c>
       <c r="L40" t="n">
-        <v>841.8848927217539</v>
+        <v>841.8848927217541</v>
       </c>
       <c r="M40" t="n">
         <v>1261.872975639197</v>
@@ -7348,13 +7348,13 @@
         <v>2049.241076176742</v>
       </c>
       <c r="P40" t="n">
-        <v>2348.263533184879</v>
+        <v>2348.263533184878</v>
       </c>
       <c r="Q40" t="n">
-        <v>2482.504572029462</v>
+        <v>2482.504572029461</v>
       </c>
       <c r="R40" t="n">
-        <v>2440.052307952947</v>
+        <v>2440.052307952946</v>
       </c>
       <c r="S40" t="n">
         <v>2288.356851862096</v>
@@ -7363,7 +7363,7 @@
         <v>2103.051415231668</v>
       </c>
       <c r="U40" t="n">
-        <v>1849.278025936227</v>
+        <v>1849.278025936226</v>
       </c>
       <c r="V40" t="n">
         <v>1629.90838124174</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.190090748021</v>
+        <v>2102.190090748022</v>
       </c>
       <c r="C41" t="n">
-        <v>1768.54241731901</v>
+        <v>1768.542417319011</v>
       </c>
       <c r="D41" t="n">
-        <v>1445.591562223659</v>
+        <v>1445.59156222366</v>
       </c>
       <c r="E41" t="n">
-        <v>1095.118153136815</v>
+        <v>1095.118153136816</v>
       </c>
       <c r="F41" t="n">
-        <v>719.447091858608</v>
+        <v>719.4470918586089</v>
       </c>
       <c r="G41" t="n">
         <v>340.2875945070599</v>
       </c>
       <c r="H41" t="n">
-        <v>84.14422441448642</v>
+        <v>84.14422441448649</v>
       </c>
       <c r="I41" t="n">
-        <v>84.14422441448647</v>
+        <v>84.14422441448649</v>
       </c>
       <c r="J41" t="n">
-        <v>322.7769347073939</v>
+        <v>322.776934707394</v>
       </c>
       <c r="K41" t="n">
-        <v>887.5833703988718</v>
+        <v>731.1640265337937</v>
       </c>
       <c r="L41" t="n">
-        <v>1431.125431724355</v>
+        <v>1274.706087859277</v>
       </c>
       <c r="M41" t="n">
-        <v>2067.590141736099</v>
+        <v>1911.170797871021</v>
       </c>
       <c r="N41" t="n">
-        <v>2718.967324538034</v>
+        <v>2562.547980672956</v>
       </c>
       <c r="O41" t="n">
-        <v>3320.70906612818</v>
+        <v>3164.289722263104</v>
       </c>
       <c r="P41" t="n">
-        <v>3799.780719929196</v>
+        <v>3799.780719929197</v>
       </c>
       <c r="Q41" t="n">
-        <v>4111.370833908525</v>
+        <v>4111.370833908526</v>
       </c>
       <c r="R41" t="n">
         <v>4207.211220724324</v>
       </c>
       <c r="S41" t="n">
-        <v>4145.864811255524</v>
+        <v>4145.864811255525</v>
       </c>
       <c r="T41" t="n">
-        <v>3977.820130577117</v>
+        <v>3977.820130577118</v>
       </c>
       <c r="U41" t="n">
-        <v>3759.652346105718</v>
+        <v>3759.652346105719</v>
       </c>
       <c r="V41" t="n">
-        <v>3463.904302273548</v>
+        <v>3463.904302273549</v>
       </c>
       <c r="W41" t="n">
-        <v>3146.450490514834</v>
+        <v>3146.450490514835</v>
       </c>
       <c r="X41" t="n">
-        <v>2808.299575765154</v>
+        <v>2808.299575765155</v>
       </c>
       <c r="Y41" t="n">
-        <v>2453.475087300743</v>
+        <v>2453.475087300744</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>92.13339772776153</v>
       </c>
       <c r="I42" t="n">
-        <v>84.14422441448647</v>
+        <v>84.14422441448649</v>
       </c>
       <c r="J42" t="n">
-        <v>207.4543849102231</v>
+        <v>207.4543849102232</v>
       </c>
       <c r="K42" t="n">
-        <v>496.3659144757556</v>
+        <v>496.3659144757557</v>
       </c>
       <c r="L42" t="n">
-        <v>931.1656610290056</v>
+        <v>496.3659144757557</v>
       </c>
       <c r="M42" t="n">
-        <v>1457.913325249778</v>
+        <v>1023.113578696528</v>
       </c>
       <c r="N42" t="n">
-        <v>2013.011077671628</v>
+        <v>1578.211331118378</v>
       </c>
       <c r="O42" t="n">
-        <v>2171.132459357286</v>
+        <v>2063.79753223713</v>
       </c>
       <c r="P42" t="n">
-        <v>2541.52512954751</v>
+        <v>2343.846634905739</v>
       </c>
       <c r="Q42" t="n">
         <v>2541.52512954751</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>851.319990378592</v>
+        <v>851.3199903785928</v>
       </c>
       <c r="C43" t="n">
-        <v>717.6986509620854</v>
+        <v>717.698650962086</v>
       </c>
       <c r="D43" t="n">
-        <v>602.8968550611498</v>
+        <v>602.8968550611505</v>
       </c>
       <c r="E43" t="n">
-        <v>490.2986049901569</v>
+        <v>490.2986049901576</v>
       </c>
       <c r="F43" t="n">
-        <v>378.7235010036468</v>
+        <v>378.7235010036474</v>
       </c>
       <c r="G43" t="n">
-        <v>246.6037991275341</v>
+        <v>246.6037991275347</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0868088616762</v>
+        <v>138.0868088616768</v>
       </c>
       <c r="I43" t="n">
-        <v>84.14422441448647</v>
+        <v>84.14422441448649</v>
       </c>
       <c r="J43" t="n">
-        <v>182.4696585060007</v>
+        <v>182.4696585060005</v>
       </c>
       <c r="K43" t="n">
-        <v>451.6191891668125</v>
+        <v>451.6191891668123</v>
       </c>
       <c r="L43" t="n">
         <v>841.8848927217539</v>
@@ -7579,7 +7579,7 @@
         <v>1261.872975639197</v>
       </c>
       <c r="N43" t="n">
-        <v>1678.132294942265</v>
+        <v>1678.132294942266</v>
       </c>
       <c r="O43" t="n">
         <v>2049.241076176741</v>
@@ -7588,31 +7588,31 @@
         <v>2348.263533184878</v>
       </c>
       <c r="Q43" t="n">
-        <v>2482.50457202946</v>
+        <v>2482.504572029461</v>
       </c>
       <c r="R43" t="n">
-        <v>2440.052307952945</v>
+        <v>2440.052307952946</v>
       </c>
       <c r="S43" t="n">
-        <v>2288.356851862095</v>
+        <v>2288.356851862096</v>
       </c>
       <c r="T43" t="n">
-        <v>2103.051415231666</v>
+        <v>2103.051415231668</v>
       </c>
       <c r="U43" t="n">
-        <v>1849.278025936225</v>
+        <v>1849.278025936226</v>
       </c>
       <c r="V43" t="n">
-        <v>1629.908381241738</v>
+        <v>1629.908381241739</v>
       </c>
       <c r="W43" t="n">
-        <v>1375.806054716178</v>
+        <v>1375.806054716179</v>
       </c>
       <c r="X43" t="n">
-        <v>1183.131347329561</v>
+        <v>1183.131347329562</v>
       </c>
       <c r="Y43" t="n">
-        <v>997.6536116974315</v>
+        <v>997.6536116974323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.190090748021</v>
+        <v>2102.190090748023</v>
       </c>
       <c r="C44" t="n">
-        <v>1768.54241731901</v>
+        <v>1768.542417319011</v>
       </c>
       <c r="D44" t="n">
-        <v>1445.591562223659</v>
+        <v>1445.591562223661</v>
       </c>
       <c r="E44" t="n">
-        <v>1095.118153136815</v>
+        <v>1095.118153136817</v>
       </c>
       <c r="F44" t="n">
-        <v>719.447091858608</v>
+        <v>719.4470918586094</v>
       </c>
       <c r="G44" t="n">
-        <v>340.2875945070599</v>
+        <v>340.28759450706</v>
       </c>
       <c r="H44" t="n">
-        <v>84.14422441448647</v>
+        <v>84.14422441448649</v>
       </c>
       <c r="I44" t="n">
-        <v>84.14422441448647</v>
+        <v>84.14422441448649</v>
       </c>
       <c r="J44" t="n">
-        <v>322.7769347073939</v>
+        <v>322.776934707394</v>
       </c>
       <c r="K44" t="n">
-        <v>731.1640265337935</v>
+        <v>731.164026533794</v>
       </c>
       <c r="L44" t="n">
         <v>1274.706087859277</v>
       </c>
       <c r="M44" t="n">
-        <v>1911.170797871021</v>
+        <v>1911.170797871022</v>
       </c>
       <c r="N44" t="n">
-        <v>2562.547980672955</v>
+        <v>2718.967324538034</v>
       </c>
       <c r="O44" t="n">
-        <v>3164.289722263102</v>
+        <v>3320.709066128181</v>
       </c>
       <c r="P44" t="n">
-        <v>3643.361376064118</v>
+        <v>3799.780719929196</v>
       </c>
       <c r="Q44" t="n">
-        <v>4111.370833908525</v>
+        <v>4111.370833908526</v>
       </c>
       <c r="R44" t="n">
         <v>4207.211220724324</v>
       </c>
       <c r="S44" t="n">
-        <v>4145.864811255524</v>
+        <v>4145.864811255526</v>
       </c>
       <c r="T44" t="n">
-        <v>3977.820130577117</v>
+        <v>3977.820130577119</v>
       </c>
       <c r="U44" t="n">
-        <v>3759.652346105719</v>
+        <v>3759.65234610572</v>
       </c>
       <c r="V44" t="n">
-        <v>3463.904302273548</v>
+        <v>3463.904302273549</v>
       </c>
       <c r="W44" t="n">
-        <v>3146.450490514834</v>
+        <v>3146.450490514835</v>
       </c>
       <c r="X44" t="n">
-        <v>2808.299575765154</v>
+        <v>2808.299575765156</v>
       </c>
       <c r="Y44" t="n">
-        <v>2453.475087300743</v>
+        <v>2453.475087300744</v>
       </c>
     </row>
     <row r="45">
@@ -7701,61 +7701,61 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>944.7471400466319</v>
+        <v>944.7471400466317</v>
       </c>
       <c r="C45" t="n">
-        <v>770.2941107655049</v>
+        <v>770.2941107655047</v>
       </c>
       <c r="D45" t="n">
-        <v>621.3597011042536</v>
+        <v>621.3597011042534</v>
       </c>
       <c r="E45" t="n">
-        <v>462.1222460987981</v>
+        <v>462.122246098798</v>
       </c>
       <c r="F45" t="n">
-        <v>315.587688125683</v>
+        <v>315.5876881256829</v>
       </c>
       <c r="G45" t="n">
         <v>179.544604642253</v>
       </c>
       <c r="H45" t="n">
-        <v>92.13339772776153</v>
+        <v>92.13339772776152</v>
       </c>
       <c r="I45" t="n">
-        <v>84.14422441448647</v>
+        <v>84.14422441448649</v>
       </c>
       <c r="J45" t="n">
-        <v>207.4543849102231</v>
+        <v>207.4543849102232</v>
       </c>
       <c r="K45" t="n">
-        <v>456.8088015196427</v>
+        <v>496.3659144757559</v>
       </c>
       <c r="L45" t="n">
-        <v>891.6085480728926</v>
+        <v>496.3659144757559</v>
       </c>
       <c r="M45" t="n">
-        <v>1418.356212293665</v>
+        <v>1023.113578696528</v>
       </c>
       <c r="N45" t="n">
-        <v>1973.453964715515</v>
+        <v>1578.211331118378</v>
       </c>
       <c r="O45" t="n">
-        <v>1973.453964715515</v>
+        <v>1973.453964715514</v>
       </c>
       <c r="P45" t="n">
-        <v>2343.846634905739</v>
+        <v>2343.846634905738</v>
       </c>
       <c r="Q45" t="n">
         <v>2541.52512954751</v>
       </c>
       <c r="R45" t="n">
-        <v>2560.857359606523</v>
+        <v>2560.857359606522</v>
       </c>
       <c r="S45" t="n">
-        <v>2437.363642646215</v>
+        <v>2437.363642646214</v>
       </c>
       <c r="T45" t="n">
-        <v>2246.010534133508</v>
+        <v>2246.010534133507</v>
       </c>
       <c r="U45" t="n">
         <v>2017.963740997131</v>
@@ -7764,7 +7764,7 @@
         <v>1782.811632765388</v>
       </c>
       <c r="W45" t="n">
-        <v>1528.574276037187</v>
+        <v>1528.574276037186</v>
       </c>
       <c r="X45" t="n">
         <v>1320.722775831654</v>
@@ -7783,43 +7783,43 @@
         <v>851.3199903785924</v>
       </c>
       <c r="C46" t="n">
-        <v>717.6986509620857</v>
+        <v>717.6986509620856</v>
       </c>
       <c r="D46" t="n">
-        <v>602.8968550611502</v>
+        <v>602.8968550611501</v>
       </c>
       <c r="E46" t="n">
         <v>490.2986049901572</v>
       </c>
       <c r="F46" t="n">
-        <v>378.7235010036471</v>
+        <v>378.723501003647</v>
       </c>
       <c r="G46" t="n">
-        <v>246.6037991275344</v>
+        <v>246.6037991275343</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0868088616765</v>
+        <v>138.0868088616768</v>
       </c>
       <c r="I46" t="n">
-        <v>84.14422441448647</v>
+        <v>84.14422441448649</v>
       </c>
       <c r="J46" t="n">
-        <v>182.4696585060004</v>
+        <v>182.4696585060005</v>
       </c>
       <c r="K46" t="n">
-        <v>451.6191891668123</v>
+        <v>451.6191891668125</v>
       </c>
       <c r="L46" t="n">
-        <v>841.8848927217537</v>
+        <v>841.884892721754</v>
       </c>
       <c r="M46" t="n">
         <v>1261.872975639197</v>
       </c>
       <c r="N46" t="n">
-        <v>1678.132294942265</v>
+        <v>1678.132294942266</v>
       </c>
       <c r="O46" t="n">
-        <v>2049.241076176741</v>
+        <v>2049.241076176742</v>
       </c>
       <c r="P46" t="n">
         <v>2348.263533184878</v>
@@ -7831,16 +7831,16 @@
         <v>2440.052307952946</v>
       </c>
       <c r="S46" t="n">
-        <v>2288.356851862095</v>
+        <v>2288.356851862096</v>
       </c>
       <c r="T46" t="n">
-        <v>2103.051415231667</v>
+        <v>2103.051415231668</v>
       </c>
       <c r="U46" t="n">
         <v>1849.278025936226</v>
       </c>
       <c r="V46" t="n">
-        <v>1629.908381241739</v>
+        <v>1629.90838124174</v>
       </c>
       <c r="W46" t="n">
         <v>1375.806054716179</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562865</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>247.428374802315</v>
+        <v>361.0244890520116</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>72.9824266370957</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>201.8973983894735</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>326.0224242736437</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>67.21812608172117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028825</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>423.673696662236</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>134.195127160075</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,16 +8927,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>74.35392770731892</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>227.0172173185383</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>352.3853382402058</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>183.2887230681319</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9407,13 +9407,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>173.4674065264039</v>
+        <v>295.7305695486252</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9641,25 +9641,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>295.7305695486252</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>26.86883573948163</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>227.0172173185384</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>161.3007974455564</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,10 +10115,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>227.017217318539</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>258.8695362609201</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>157.9993372374514</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>157.9993372374512</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>157.9993372374518</v>
+        <v>92.28291736447068</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>157.9993372374519</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>157.9993372374538</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>157.9993372374527</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>157.9993372374523</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>157.9993372374513</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>157.9993372374527</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.5773279611251</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>415.1619485273195</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
-        <v>61.87643319194541</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>142.7991814614649</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,19 +22592,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>110.7223100106941</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="3">
@@ -22705,10 +22705,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22723,10 +22723,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>64.64872898363566</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22762,10 +22762,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>45.61681630107574</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>45.61681630107557</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>105.4096067224899</v>
       </c>
       <c r="H13" t="n">
-        <v>118.2514827213249</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.66514257606983</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.7601999336378</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3935154394855</v>
+        <v>85.87696243494716</v>
       </c>
       <c r="I16" t="n">
         <v>88.36485367900463</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>76.98943651203574</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>145.1412002530955</v>
       </c>
       <c r="E19" t="n">
-        <v>142.9596898814524</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>142.9596898814522</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>111.7431827177273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.7601999336378</v>
+        <v>131.0694200047959</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3935154394855</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>88.36485367900463</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>185.140196606228</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>218.4140773404099</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>264.2003060944477</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.9596898814524</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>123.315427177399</v>
       </c>
       <c r="G28" t="n">
         <v>165.7601999336378</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>26.2511047861199</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.7601999336378</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3935154394855</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>88.36485367900463</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>76.98943651203574</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>185.140196606228</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>157.3149160194908</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-13</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1279240.090285344</v>
+        <v>1279240.090285345</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1279240.090285345</v>
+        <v>1279240.090285344</v>
       </c>
     </row>
     <row r="12">
@@ -26317,16 +26317,16 @@
         <v>143682.3097262495</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262498</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="E2" t="n">
-        <v>138343.1831593701</v>
+        <v>138343.18315937</v>
       </c>
       <c r="F2" t="n">
         <v>140181.5476503558</v>
       </c>
       <c r="G2" t="n">
-        <v>140181.5476503559</v>
+        <v>140181.5476503558</v>
       </c>
       <c r="H2" t="n">
         <v>140181.5476503558</v>
@@ -26341,16 +26341,16 @@
         <v>140181.5476503558</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="M2" t="n">
         <v>143682.3097262495</v>
       </c>
       <c r="N2" t="n">
+        <v>143682.3097262495</v>
+      </c>
+      <c r="O2" t="n">
         <v>143682.3097262496</v>
-      </c>
-      <c r="O2" t="n">
-        <v>143682.3097262495</v>
       </c>
       <c r="P2" t="n">
         <v>143682.3097262495</v>
@@ -26366,10 +26366,10 @@
         <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>295747.6483684308</v>
+        <v>295747.6483684311</v>
       </c>
       <c r="D3" t="n">
-        <v>137222.6234676972</v>
+        <v>137222.6234676969</v>
       </c>
       <c r="E3" t="n">
         <v>723867.7825314548</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113909</v>
+        <v>72254.69487113907</v>
       </c>
       <c r="K3" t="n">
-        <v>68762.32665487782</v>
+        <v>68762.32665487788</v>
       </c>
       <c r="L3" t="n">
-        <v>27969.356061029</v>
+        <v>27969.35606102896</v>
       </c>
       <c r="M3" t="n">
-        <v>126713.049458226</v>
+        <v>126713.0494582261</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>259343.5048344938</v>
       </c>
       <c r="D4" t="n">
-        <v>218780.324998335</v>
+        <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>31193.81226187757</v>
+        <v>31193.81226187756</v>
       </c>
       <c r="F4" t="n">
-        <v>18401.5951422884</v>
+        <v>18401.59514228839</v>
       </c>
       <c r="G4" t="n">
         <v>18401.59514228839</v>
@@ -26439,25 +26439,25 @@
         <v>18401.59514228839</v>
       </c>
       <c r="J4" t="n">
-        <v>18401.59514228833</v>
+        <v>18401.5951422884</v>
       </c>
       <c r="K4" t="n">
-        <v>18401.59514228833</v>
+        <v>18401.59514228839</v>
       </c>
       <c r="L4" t="n">
-        <v>43646.5797853494</v>
+        <v>43646.57978534939</v>
       </c>
       <c r="M4" t="n">
         <v>43646.5797853494</v>
       </c>
       <c r="N4" t="n">
-        <v>43646.57978534939</v>
+        <v>43646.57978534934</v>
       </c>
       <c r="O4" t="n">
-        <v>43646.57978534944</v>
+        <v>43646.57978534942</v>
       </c>
       <c r="P4" t="n">
-        <v>43646.57978534941</v>
+        <v>43646.57978534937</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>72439.45306100234</v>
+        <v>72439.45306100236</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26500,16 +26500,16 @@
         <v>93856.90056316875</v>
       </c>
       <c r="M5" t="n">
+        <v>93856.90056316876</v>
+      </c>
+      <c r="N5" t="n">
+        <v>93856.90056316876</v>
+      </c>
+      <c r="O5" t="n">
         <v>93856.90056316875</v>
       </c>
-      <c r="N5" t="n">
-        <v>93856.90056316873</v>
-      </c>
-      <c r="O5" t="n">
-        <v>93856.90056316873</v>
-      </c>
       <c r="P5" t="n">
-        <v>93856.90056316873</v>
+        <v>93856.90056316875</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-339975.954193111</v>
+        <v>-340202.8641294177</v>
       </c>
       <c r="C6" t="n">
-        <v>-483848.2965376774</v>
+        <v>-483848.2965376778</v>
       </c>
       <c r="D6" t="n">
-        <v>-295179.7168031919</v>
+        <v>-295179.7168031917</v>
       </c>
       <c r="E6" t="n">
-        <v>-712387.2570287022</v>
+        <v>-712463.5302653719</v>
       </c>
       <c r="F6" t="n">
-        <v>-93525.99370179817</v>
+        <v>-93576.00458859668</v>
       </c>
       <c r="G6" t="n">
-        <v>22900.14392147076</v>
+        <v>22850.13303467222</v>
       </c>
       <c r="H6" t="n">
-        <v>22900.14392147068</v>
+        <v>22850.1330346722</v>
       </c>
       <c r="I6" t="n">
-        <v>22900.14392147068</v>
+        <v>22850.13303467222</v>
       </c>
       <c r="J6" t="n">
-        <v>-49354.55094966829</v>
+        <v>-49404.56183646685</v>
       </c>
       <c r="K6" t="n">
-        <v>-45862.18273340705</v>
+        <v>-45912.19362020562</v>
       </c>
       <c r="L6" t="n">
-        <v>-21790.52668329755</v>
+        <v>-21790.52668329759</v>
       </c>
       <c r="M6" t="n">
         <v>-120534.2200804947</v>
       </c>
       <c r="N6" t="n">
-        <v>6178.829377731483</v>
+        <v>6178.82937773141</v>
       </c>
       <c r="O6" t="n">
-        <v>6178.829377731367</v>
+        <v>6178.82937773141</v>
       </c>
       <c r="P6" t="n">
-        <v>6178.82937773141</v>
+        <v>6178.829377731396</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>34.9616950762862</v>
       </c>
       <c r="M2" t="n">
+        <v>34.96169507628616</v>
+      </c>
+      <c r="N2" t="n">
+        <v>34.96169507628616</v>
+      </c>
+      <c r="O2" t="n">
         <v>34.9616950762862</v>
       </c>
-      <c r="N2" t="n">
-        <v>34.96169507628618</v>
-      </c>
-      <c r="O2" t="n">
-        <v>34.96169507628622</v>
-      </c>
       <c r="P2" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>265.0132864367728</v>
+        <v>265.0132864367731</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26774,10 +26774,10 @@
         <v>1237.068590128015</v>
       </c>
       <c r="O3" t="n">
-        <v>1237.068590128014</v>
+        <v>1237.068590128015</v>
       </c>
       <c r="P3" t="n">
-        <v>1237.068590128014</v>
+        <v>1237.068590128015</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>543.3316351427746</v>
+        <v>543.3316351427749</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>34.96169507628625</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-3.552713678800501e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>229.9920257176476</v>
+        <v>229.9920257176478</v>
       </c>
       <c r="D3" t="n">
-        <v>112.7303777803139</v>
+        <v>112.7303777803136</v>
       </c>
       <c r="E3" t="n">
         <v>712.0330363762116</v>
@@ -27012,10 +27012,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>267.1751214404192</v>
+        <v>267.1751214404194</v>
       </c>
       <c r="D4" t="n">
-        <v>130.955637611781</v>
+        <v>130.9556376117807</v>
       </c>
       <c r="E4" t="n">
         <v>508.471170038306</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023556</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>267.1751214404192</v>
+        <v>267.1751214404194</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>508.4711700383061</v>
+        <v>508.4711700383065</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>267.1751214404192</v>
+        <v>267.1751214404194</v>
       </c>
       <c r="L4" t="n">
-        <v>130.955637611781</v>
+        <v>130.9556376117807</v>
       </c>
       <c r="M4" t="n">
         <v>508.471170038306</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>196.6459041213323</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.37398382860097</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,7 +27470,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
@@ -27506,25 +27506,25 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.8330348658972</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>24.24552745086272</v>
       </c>
       <c r="K4" t="n">
         <v>14.93225064571201</v>
@@ -27594,10 +27594,10 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>199.1961034048956</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>328.5639787199054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>169.4028253478785</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>82.94593862804844</v>
+        <v>82.94593862804838</v>
       </c>
       <c r="S5" t="n">
-        <v>184.742721788545</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.4321484128672</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>5.391625679700098</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>106.7301682295741</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>69.77064890303141</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>161.0951402730856</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27752,16 +27752,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>157.5138692526268</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>145.8016547400263</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>157.9782709642402</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>141.0789347381952</v>
       </c>
       <c r="J7" t="n">
-        <v>59.57215833603701</v>
+        <v>59.57215833603698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.14503699974169</v>
+        <v>46.14503699974166</v>
       </c>
       <c r="R7" t="n">
         <v>155.8055927752633</v>
@@ -27828,13 +27828,13 @@
         <v>225.9036837786867</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2929624758577</v>
+        <v>239.3671342510138</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>73.34024806129295</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>202.3157370785837</v>
+        <v>47.11121015899772</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>263.2541356726985</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>198.4598848430867</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="C35" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="D35" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="E35" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="F35" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="G35" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="I35" t="n">
         <v>18.74890737579167</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="T35" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="U35" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="V35" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="W35" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="X35" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="Y35" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="C37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="D37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="E37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="F37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="G37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="H37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="I37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="J37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="K37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="L37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="M37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="N37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="O37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="P37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="Q37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="R37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="S37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="T37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="U37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="V37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="W37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="X37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.9616950762862</v>
+        <v>34.96169507628616</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="C38" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="D38" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="E38" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="F38" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="G38" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="I38" t="n">
-        <v>18.74890737579167</v>
+        <v>18.74890737579028</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="T38" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="U38" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="V38" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="W38" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="X38" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="Y38" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="C40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="D40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="E40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="F40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="G40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="H40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="I40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="J40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="K40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="L40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="M40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="N40" t="n">
-        <v>34.96169507628645</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="O40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="P40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="Q40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="R40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="S40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="T40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="U40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="V40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="W40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="X40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628616</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="C41" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="D41" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="E41" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="F41" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="G41" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="H41" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="I41" t="n">
-        <v>18.7489073757917</v>
+        <v>18.74890737579167</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="T41" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="U41" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="V41" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="W41" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="X41" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="Y41" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="C43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="D43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="E43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="F43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="G43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="H43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="I43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="J43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="K43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="L43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="M43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="N43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="O43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="P43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="Q43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="R43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="S43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="T43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="U43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="V43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="W43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="X43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.96169507628622</v>
+        <v>34.9616950762862</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="C44" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="D44" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="E44" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="F44" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="G44" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="I44" t="n">
-        <v>18.7489073757917</v>
+        <v>18.74890737579162</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="T44" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="U44" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="V44" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="W44" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="X44" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="Y44" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="C46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="D46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="E46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="F46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="G46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="H46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="I46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="J46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="K46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="L46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="M46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="N46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="O46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="P46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="Q46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="R46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="S46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="T46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="U46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="V46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="W46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="X46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.96169507628618</v>
+        <v>34.96169507628617</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.065380045976975</v>
+        <v>1.065380045976976</v>
       </c>
       <c r="H5" t="n">
-        <v>10.9108233958617</v>
+        <v>10.91082339586171</v>
       </c>
       <c r="I5" t="n">
-        <v>41.07306422252739</v>
+        <v>41.07306422252742</v>
       </c>
       <c r="J5" t="n">
-        <v>90.4227996772384</v>
+        <v>90.42279967723847</v>
       </c>
       <c r="K5" t="n">
-        <v>135.5203370234438</v>
+        <v>135.5203370234439</v>
       </c>
       <c r="L5" t="n">
-        <v>168.1249616055117</v>
+        <v>168.1249616055118</v>
       </c>
       <c r="M5" t="n">
-        <v>187.0714139981547</v>
+        <v>187.0714139981549</v>
       </c>
       <c r="N5" t="n">
-        <v>190.0984250537868</v>
+        <v>190.098425053787</v>
       </c>
       <c r="O5" t="n">
-        <v>179.5045522216033</v>
+        <v>179.5045522216034</v>
       </c>
       <c r="P5" t="n">
-        <v>153.2029823365467</v>
+        <v>153.2029823365468</v>
       </c>
       <c r="Q5" t="n">
-        <v>115.0490594399962</v>
+        <v>115.0490594399963</v>
       </c>
       <c r="R5" t="n">
-        <v>66.92317931310124</v>
+        <v>66.9231793131013</v>
       </c>
       <c r="S5" t="n">
-        <v>24.27734779770035</v>
+        <v>24.27734779770037</v>
       </c>
       <c r="T5" t="n">
-        <v>4.663701151264212</v>
+        <v>4.663701151264216</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08523040367815801</v>
+        <v>0.08523040367815808</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5700285783734359</v>
+        <v>0.5700285783734365</v>
       </c>
       <c r="H6" t="n">
-        <v>5.505276006922395</v>
+        <v>5.5052760069224</v>
       </c>
       <c r="I6" t="n">
-        <v>19.62598394838365</v>
+        <v>19.62598394838367</v>
       </c>
       <c r="J6" t="n">
-        <v>53.85520002957099</v>
+        <v>53.85520002957103</v>
       </c>
       <c r="K6" t="n">
-        <v>92.04711478059119</v>
+        <v>92.04711478059127</v>
       </c>
       <c r="L6" t="n">
-        <v>123.7687051420042</v>
+        <v>123.7687051420043</v>
       </c>
       <c r="M6" t="n">
-        <v>144.4322411080412</v>
+        <v>144.4322411080413</v>
       </c>
       <c r="N6" t="n">
-        <v>148.2549327586244</v>
+        <v>148.2549327586246</v>
       </c>
       <c r="O6" t="n">
-        <v>135.6242995220341</v>
+        <v>135.6242995220342</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8504572158888</v>
+        <v>108.8504572158889</v>
       </c>
       <c r="Q6" t="n">
-        <v>72.76364800430035</v>
+        <v>72.76364800430042</v>
       </c>
       <c r="R6" t="n">
-        <v>35.3917743660279</v>
+        <v>35.39177436602793</v>
       </c>
       <c r="S6" t="n">
-        <v>10.58803083075219</v>
+        <v>10.5880308307522</v>
       </c>
       <c r="T6" t="n">
-        <v>2.297615190899945</v>
+        <v>2.297615190899947</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03750188015614712</v>
+        <v>0.03750188015614715</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4778928116072952</v>
+        <v>0.4778928116072956</v>
       </c>
       <c r="H7" t="n">
-        <v>4.24890154319941</v>
+        <v>4.248901543199413</v>
       </c>
       <c r="I7" t="n">
-        <v>14.37154018906303</v>
+        <v>14.37154018906304</v>
       </c>
       <c r="J7" t="n">
-        <v>33.78702178063577</v>
+        <v>33.7870217806358</v>
       </c>
       <c r="K7" t="n">
-        <v>55.52245574855665</v>
+        <v>55.52245574855669</v>
       </c>
       <c r="L7" t="n">
-        <v>71.04962764568825</v>
+        <v>71.0496276456883</v>
       </c>
       <c r="M7" t="n">
-        <v>74.91187045949627</v>
+        <v>74.91187045949634</v>
       </c>
       <c r="N7" t="n">
-        <v>73.13063361623279</v>
+        <v>73.13063361623284</v>
       </c>
       <c r="O7" t="n">
-        <v>67.54797668063844</v>
+        <v>67.5479766806385</v>
       </c>
       <c r="P7" t="n">
-        <v>57.79896332384957</v>
+        <v>57.79896332384962</v>
       </c>
       <c r="Q7" t="n">
-        <v>40.01700625195269</v>
+        <v>40.01700625195273</v>
       </c>
       <c r="R7" t="n">
-        <v>21.4877986019062</v>
+        <v>21.48779860190621</v>
       </c>
       <c r="S7" t="n">
-        <v>8.328368362283497</v>
+        <v>8.328368362283504</v>
       </c>
       <c r="T7" t="n">
-        <v>2.041905649594806</v>
+        <v>2.041905649594808</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02606688063312522</v>
+        <v>0.02606688063312525</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32075,7 +32075,7 @@
         <v>91.61309841985771</v>
       </c>
       <c r="J15" t="n">
-        <v>251.393344339128</v>
+        <v>230.964169695591</v>
       </c>
       <c r="K15" t="n">
         <v>429.6712668183313</v>
@@ -32096,10 +32096,10 @@
         <v>508.1084177074859</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.700341445272</v>
+        <v>339.6570211989221</v>
       </c>
       <c r="R15" t="n">
-        <v>165.2070090740772</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>49.42439131313338</v>
@@ -32312,22 +32312,22 @@
         <v>91.61309841985771</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>251.393344339128</v>
       </c>
       <c r="K18" t="n">
         <v>429.6712668183313</v>
       </c>
       <c r="L18" t="n">
-        <v>171.8539686426229</v>
+        <v>577.7460429649752</v>
       </c>
       <c r="M18" t="n">
         <v>674.2023816197679</v>
       </c>
       <c r="N18" t="n">
-        <v>692.0465125094447</v>
+        <v>652.0898327557945</v>
       </c>
       <c r="O18" t="n">
-        <v>633.0873566856077</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>508.1084177074859</v>
@@ -32555,7 +32555,7 @@
         <v>429.6712668183313</v>
       </c>
       <c r="L21" t="n">
-        <v>577.7460429649752</v>
+        <v>371.5292157555233</v>
       </c>
       <c r="M21" t="n">
         <v>674.2023816197679</v>
@@ -32564,13 +32564,13 @@
         <v>692.0465125094447</v>
       </c>
       <c r="O21" t="n">
-        <v>227.1952823632554</v>
+        <v>633.0873566856077</v>
       </c>
       <c r="P21" t="n">
         <v>508.1084177074859</v>
       </c>
       <c r="Q21" t="n">
-        <v>339.6570211989221</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>165.2070090740772</v>
@@ -32789,7 +32789,7 @@
         <v>251.393344339128</v>
       </c>
       <c r="K24" t="n">
-        <v>389.7145870646812</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>577.7460429649752</v>
@@ -32801,10 +32801,10 @@
         <v>692.0465125094447</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>633.0873566856077</v>
       </c>
       <c r="P24" t="n">
-        <v>508.1084177074859</v>
+        <v>269.490453556645</v>
       </c>
       <c r="Q24" t="n">
         <v>339.6570211989221</v>
@@ -33023,16 +33023,16 @@
         <v>91.61309841985771</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>251.393344339128</v>
       </c>
       <c r="K27" t="n">
-        <v>429.6712668183313</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>577.7460429649752</v>
       </c>
       <c r="M27" t="n">
-        <v>674.2023816197679</v>
+        <v>435.5844174689267</v>
       </c>
       <c r="N27" t="n">
         <v>692.0465125094447</v>
@@ -33041,10 +33041,10 @@
         <v>633.0873566856077</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>508.1084177074859</v>
       </c>
       <c r="Q27" t="n">
-        <v>307.8989571697257</v>
+        <v>339.6570211989221</v>
       </c>
       <c r="R27" t="n">
         <v>165.2070090740772</v>
@@ -33266,10 +33266,10 @@
         <v>429.6712668183313</v>
       </c>
       <c r="L30" t="n">
-        <v>577.7460429649752</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>343.4298367378549</v>
+        <v>582.9462528100555</v>
       </c>
       <c r="N30" t="n">
         <v>692.0465125094447</v>
@@ -33281,7 +33281,7 @@
         <v>508.1084177074859</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>339.6570211989221</v>
       </c>
       <c r="R30" t="n">
         <v>165.2070090740772</v>
@@ -33506,7 +33506,7 @@
         <v>577.7460429649752</v>
       </c>
       <c r="M33" t="n">
-        <v>674.2023816197679</v>
+        <v>143.7545896249542</v>
       </c>
       <c r="N33" t="n">
         <v>692.0465125094447</v>
@@ -33515,13 +33515,13 @@
         <v>633.0873566856077</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>508.1084177074859</v>
       </c>
       <c r="Q33" t="n">
-        <v>202.8707446073774</v>
+        <v>339.6570211989221</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>165.2070090740772</v>
       </c>
       <c r="S33" t="n">
         <v>49.42439131313338</v>
@@ -33737,7 +33737,7 @@
         <v>251.393344339128</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>429.6712668183313</v>
       </c>
       <c r="L36" t="n">
         <v>577.7460429649752</v>
@@ -33746,7 +33746,7 @@
         <v>674.2023816197679</v>
       </c>
       <c r="N36" t="n">
-        <v>453.4285483586034</v>
+        <v>181.1262256247444</v>
       </c>
       <c r="O36" t="n">
         <v>633.0873566856077</v>
@@ -33758,7 +33758,7 @@
         <v>339.6570211989221</v>
       </c>
       <c r="R36" t="n">
-        <v>165.2070090740772</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>49.42439131313338</v>
@@ -33974,13 +33974,13 @@
         <v>251.393344339128</v>
       </c>
       <c r="K39" t="n">
-        <v>292.8849902267864</v>
+        <v>429.6712668183313</v>
       </c>
       <c r="L39" t="n">
         <v>577.7460429649752</v>
       </c>
       <c r="M39" t="n">
-        <v>674.2023816197679</v>
+        <v>143.7545896249547</v>
       </c>
       <c r="N39" t="n">
         <v>692.0465125094447</v>
@@ -33989,13 +33989,13 @@
         <v>633.0873566856077</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>508.1084177074859</v>
       </c>
       <c r="Q39" t="n">
         <v>339.6570211989221</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>165.2070090740772</v>
       </c>
       <c r="S39" t="n">
         <v>49.42439131313338</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.973140060816134</v>
+        <v>4.973140060816135</v>
       </c>
       <c r="H41" t="n">
-        <v>50.93117064783325</v>
+        <v>50.93117064783326</v>
       </c>
       <c r="I41" t="n">
         <v>191.7269821946142</v>
       </c>
       <c r="J41" t="n">
-        <v>422.0890462366938</v>
+        <v>422.0890462366939</v>
       </c>
       <c r="K41" t="n">
-        <v>632.6020650110408</v>
+        <v>632.602065011041</v>
       </c>
       <c r="L41" t="n">
-        <v>784.7988001472428</v>
+        <v>784.798800147243</v>
       </c>
       <c r="M41" t="n">
-        <v>873.2398797037818</v>
+        <v>873.2398797037819</v>
       </c>
       <c r="N41" t="n">
-        <v>887.3698139015756</v>
+        <v>887.3698139015759</v>
       </c>
       <c r="O41" t="n">
-        <v>837.9181524218352</v>
+        <v>837.9181524218353</v>
       </c>
       <c r="P41" t="n">
-        <v>715.1437571704367</v>
+        <v>715.1437571704369</v>
       </c>
       <c r="Q41" t="n">
-        <v>537.0431787424587</v>
+        <v>537.0431787424588</v>
       </c>
       <c r="R41" t="n">
         <v>312.3940093452418</v>
@@ -34159,7 +34159,7 @@
         <v>113.3254291358478</v>
       </c>
       <c r="T41" t="n">
-        <v>21.76992061622264</v>
+        <v>21.76992061622265</v>
       </c>
       <c r="U41" t="n">
         <v>0.3978512048652907</v>
@@ -34199,37 +34199,37 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.660864514614974</v>
+        <v>2.660864514614975</v>
       </c>
       <c r="H42" t="n">
         <v>25.69834939114989</v>
       </c>
       <c r="I42" t="n">
-        <v>91.61309841985769</v>
+        <v>91.61309841985771</v>
       </c>
       <c r="J42" t="n">
         <v>251.393344339128</v>
       </c>
       <c r="K42" t="n">
-        <v>429.6712668183312</v>
+        <v>429.6712668183313</v>
       </c>
       <c r="L42" t="n">
-        <v>577.7460429649751</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>674.2023816197677</v>
+        <v>674.2023816197679</v>
       </c>
       <c r="N42" t="n">
-        <v>692.0465125094446</v>
+        <v>692.0465125094447</v>
       </c>
       <c r="O42" t="n">
-        <v>302.3148118036954</v>
+        <v>633.0873566856077</v>
       </c>
       <c r="P42" t="n">
-        <v>508.1084177074858</v>
+        <v>416.8522888977737</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>339.6570211989221</v>
       </c>
       <c r="R42" t="n">
         <v>165.2070090740772</v>
@@ -34241,7 +34241,7 @@
         <v>10.72515126724193</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1750568759615115</v>
+        <v>0.1750568759615116</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,7 +34284,7 @@
         <v>19.83365706795408</v>
       </c>
       <c r="I43" t="n">
-        <v>67.08562124825364</v>
+        <v>67.08562124825366</v>
       </c>
       <c r="J43" t="n">
         <v>157.7161053348454</v>
@@ -34296,16 +34296,16 @@
         <v>331.6560610320254</v>
       </c>
       <c r="M43" t="n">
-        <v>349.6848147471696</v>
+        <v>349.6848147471697</v>
       </c>
       <c r="N43" t="n">
-        <v>341.3700914364734</v>
+        <v>341.3700914364735</v>
       </c>
       <c r="O43" t="n">
-        <v>315.3105317919733</v>
+        <v>315.3105317919734</v>
       </c>
       <c r="P43" t="n">
-        <v>269.8026315256245</v>
+        <v>269.8026315256246</v>
       </c>
       <c r="Q43" t="n">
         <v>186.7973571093302</v>
@@ -34314,13 +34314,13 @@
         <v>100.3039548651337</v>
       </c>
       <c r="S43" t="n">
-        <v>38.8764014307443</v>
+        <v>38.87640143074431</v>
       </c>
       <c r="T43" t="n">
-        <v>9.531512087871583</v>
+        <v>9.531512087871585</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1216788777175097</v>
+        <v>0.1216788777175098</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.973140060816134</v>
+        <v>4.973140060816136</v>
       </c>
       <c r="H44" t="n">
-        <v>50.93117064783325</v>
+        <v>50.93117064783327</v>
       </c>
       <c r="I44" t="n">
-        <v>191.7269821946142</v>
+        <v>191.7269821946143</v>
       </c>
       <c r="J44" t="n">
-        <v>422.0890462366938</v>
+        <v>422.0890462366939</v>
       </c>
       <c r="K44" t="n">
-        <v>632.6020650110408</v>
+        <v>632.6020650110411</v>
       </c>
       <c r="L44" t="n">
-        <v>784.7988001472428</v>
+        <v>784.7988001472431</v>
       </c>
       <c r="M44" t="n">
-        <v>873.2398797037818</v>
+        <v>873.2398797037821</v>
       </c>
       <c r="N44" t="n">
-        <v>887.3698139015756</v>
+        <v>887.369813901576</v>
       </c>
       <c r="O44" t="n">
-        <v>837.9181524218352</v>
+        <v>837.9181524218354</v>
       </c>
       <c r="P44" t="n">
-        <v>715.1437571704367</v>
+        <v>715.143757170437</v>
       </c>
       <c r="Q44" t="n">
-        <v>537.0431787424587</v>
+        <v>537.043178742459</v>
       </c>
       <c r="R44" t="n">
-        <v>312.3940093452418</v>
+        <v>312.3940093452419</v>
       </c>
       <c r="S44" t="n">
         <v>113.3254291358478</v>
       </c>
       <c r="T44" t="n">
-        <v>21.76992061622264</v>
+        <v>21.76992061622265</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3978512048652907</v>
+        <v>0.3978512048652909</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.660864514614974</v>
+        <v>2.660864514614976</v>
       </c>
       <c r="H45" t="n">
-        <v>25.69834939114989</v>
+        <v>25.6983493911499</v>
       </c>
       <c r="I45" t="n">
-        <v>91.61309841985769</v>
+        <v>91.61309841985772</v>
       </c>
       <c r="J45" t="n">
         <v>251.393344339128</v>
       </c>
       <c r="K45" t="n">
-        <v>389.7145870646818</v>
+        <v>429.6712668183314</v>
       </c>
       <c r="L45" t="n">
-        <v>577.7460429649751</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>674.2023816197677</v>
+        <v>674.2023816197681</v>
       </c>
       <c r="N45" t="n">
-        <v>692.0465125094446</v>
+        <v>692.0465125094449</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>541.8312278758948</v>
       </c>
       <c r="P45" t="n">
-        <v>508.1084177074858</v>
+        <v>508.108417707486</v>
       </c>
       <c r="Q45" t="n">
-        <v>339.6570211989221</v>
+        <v>339.6570211989222</v>
       </c>
       <c r="R45" t="n">
         <v>165.2070090740772</v>
       </c>
       <c r="S45" t="n">
-        <v>49.42439131313338</v>
+        <v>49.42439131313339</v>
       </c>
       <c r="T45" t="n">
-        <v>10.72515126724193</v>
+        <v>10.72515126724194</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1750568759615115</v>
+        <v>0.1750568759615116</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,46 +34518,46 @@
         <v>2.23077942482101</v>
       </c>
       <c r="H46" t="n">
-        <v>19.83365706795408</v>
+        <v>19.83365706795409</v>
       </c>
       <c r="I46" t="n">
-        <v>67.08562124825364</v>
+        <v>67.08562124825367</v>
       </c>
       <c r="J46" t="n">
         <v>157.7161053348454</v>
       </c>
       <c r="K46" t="n">
-        <v>259.1760095382954</v>
+        <v>259.1760095382955</v>
       </c>
       <c r="L46" t="n">
-        <v>331.6560610320254</v>
+        <v>331.6560610320255</v>
       </c>
       <c r="M46" t="n">
-        <v>349.6848147471696</v>
+        <v>349.6848147471698</v>
       </c>
       <c r="N46" t="n">
-        <v>341.3700914364734</v>
+        <v>341.3700914364736</v>
       </c>
       <c r="O46" t="n">
-        <v>315.3105317919733</v>
+        <v>315.3105317919735</v>
       </c>
       <c r="P46" t="n">
-        <v>269.8026315256245</v>
+        <v>269.8026315256246</v>
       </c>
       <c r="Q46" t="n">
         <v>186.7973571093302</v>
       </c>
       <c r="R46" t="n">
-        <v>100.3039548651337</v>
+        <v>100.3039548651338</v>
       </c>
       <c r="S46" t="n">
-        <v>38.8764014307443</v>
+        <v>38.87640143074432</v>
       </c>
       <c r="T46" t="n">
-        <v>9.531512087871583</v>
+        <v>9.531512087871587</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1216788777175097</v>
+        <v>0.1216788777175098</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522125</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>138.7877391315784</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>124.3809279722199</v>
+        <v>237.9770422219166</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>269.1887005891755</v>
@@ -34796,7 +34796,7 @@
         <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199195</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>78.47351032262588</v>
+        <v>78.47351032262596</v>
       </c>
       <c r="K5" t="n">
-        <v>239.575898549628</v>
+        <v>239.5758985496281</v>
       </c>
       <c r="L5" t="n">
-        <v>350.0197611859749</v>
+        <v>350.019761185975</v>
       </c>
       <c r="M5" t="n">
-        <v>406.2387142637145</v>
+        <v>406.2387142637147</v>
       </c>
       <c r="N5" t="n">
-        <v>398.0322858691801</v>
+        <v>398.0322858691802</v>
       </c>
       <c r="O5" t="n">
-        <v>330.2065220626619</v>
+        <v>330.206522062662</v>
       </c>
       <c r="P5" t="n">
-        <v>243.7686947527598</v>
+        <v>243.7686947527599</v>
       </c>
       <c r="Q5" t="n">
-        <v>105.0583602254514</v>
+        <v>105.0583602254515</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>53.10860870331317</v>
       </c>
       <c r="K6" t="n">
-        <v>218.6709128188108</v>
+        <v>218.6709128188109</v>
       </c>
       <c r="L6" t="n">
-        <v>356.0546706655891</v>
+        <v>356.0546706655892</v>
       </c>
       <c r="M6" t="n">
-        <v>468.0032709360228</v>
+        <v>204.1956055754965</v>
       </c>
       <c r="N6" t="n">
-        <v>496.2555950188447</v>
+        <v>496.2555950188448</v>
       </c>
       <c r="O6" t="n">
-        <v>319.0504793512333</v>
+        <v>386.8903743543193</v>
       </c>
       <c r="P6" t="n">
-        <v>293.3388184414957</v>
+        <v>293.3388184414958</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>142.859161654128</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,10 +35094,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>33.2529639226738</v>
+        <v>33.25296392267384</v>
       </c>
       <c r="L7" t="n">
-        <v>98.63965290600439</v>
+        <v>98.63965290600444</v>
       </c>
       <c r="M7" t="n">
         <v>114.4957474213369</v>
@@ -35106,10 +35106,10 @@
         <v>117.2628059954614</v>
       </c>
       <c r="O7" t="n">
-        <v>92.13310459467812</v>
+        <v>92.13310459467817</v>
       </c>
       <c r="P7" t="n">
-        <v>55.07752258874306</v>
+        <v>55.07752258874311</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>962.5948124924628</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>642.2481280482941</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35431,7 +35431,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>241.0431417100076</v>
       </c>
       <c r="K14" t="n">
-        <v>736.6576265372252</v>
+        <v>412.5122139660604</v>
       </c>
       <c r="L14" t="n">
-        <v>623.3863128845746</v>
+        <v>549.0323851772557</v>
       </c>
       <c r="M14" t="n">
-        <v>642.8936464765092</v>
+        <v>1092.407179969342</v>
       </c>
       <c r="N14" t="n">
-        <v>657.956750304985</v>
+        <v>884.9739676235233</v>
       </c>
       <c r="O14" t="n">
         <v>607.8199410001486</v>
@@ -35665,10 +35665,10 @@
         <v>483.9107614151673</v>
       </c>
       <c r="Q14" t="n">
-        <v>527.0524795279141</v>
+        <v>314.7374888680093</v>
       </c>
       <c r="R14" t="n">
-        <v>162.5248914040922</v>
+        <v>96.80847153110972</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>124.5557176724613</v>
+        <v>104.1265430289243</v>
       </c>
       <c r="K15" t="n">
         <v>291.8298278439723</v>
@@ -35744,10 +35744,10 @@
         <v>374.1340102931557</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.7185673592505</v>
+        <v>199.6752471129006</v>
       </c>
       <c r="R15" t="n">
-        <v>19.52750511011325</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>410.1397568820814</v>
+        <v>241.0431417100076</v>
       </c>
       <c r="K17" t="n">
         <v>736.6576265372252</v>
       </c>
       <c r="L17" t="n">
-        <v>549.0323851772557</v>
+        <v>901.4177234174615</v>
       </c>
       <c r="M17" t="n">
         <v>642.8936464765092</v>
@@ -35899,7 +35899,7 @@
         <v>607.8199410001486</v>
       </c>
       <c r="P17" t="n">
-        <v>667.1994844832992</v>
+        <v>483.9107614151673</v>
       </c>
       <c r="Q17" t="n">
         <v>314.7374888680093</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>124.5557176724613</v>
       </c>
       <c r="K18" t="n">
         <v>291.8298278439723</v>
       </c>
       <c r="L18" t="n">
-        <v>33.29958886274871</v>
+        <v>439.191663185101</v>
       </c>
       <c r="M18" t="n">
         <v>532.0683476977497</v>
       </c>
       <c r="N18" t="n">
-        <v>560.7048004261114</v>
+        <v>520.7481206724613</v>
       </c>
       <c r="O18" t="n">
-        <v>490.4911122411633</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>374.1340102931557</v>
@@ -36127,13 +36127,13 @@
         <v>549.0323851772557</v>
       </c>
       <c r="M20" t="n">
-        <v>816.3610530029131</v>
+        <v>938.6242160251344</v>
       </c>
       <c r="N20" t="n">
-        <v>1095.303674716969</v>
+        <v>657.956750304985</v>
       </c>
       <c r="O20" t="n">
-        <v>607.8199410001486</v>
+        <v>988.6201222628939</v>
       </c>
       <c r="P20" t="n">
         <v>483.9107614151673</v>
@@ -36142,7 +36142,7 @@
         <v>314.7374888680093</v>
       </c>
       <c r="R20" t="n">
-        <v>162.5248914040922</v>
+        <v>96.80847153110972</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>291.8298278439723</v>
       </c>
       <c r="L21" t="n">
-        <v>439.191663185101</v>
+        <v>232.9748359756491</v>
       </c>
       <c r="M21" t="n">
         <v>532.0683476977497</v>
@@ -36212,13 +36212,13 @@
         <v>560.7048004261114</v>
       </c>
       <c r="O21" t="n">
-        <v>84.59903791881102</v>
+        <v>490.4911122411633</v>
       </c>
       <c r="P21" t="n">
         <v>374.1340102931557</v>
       </c>
       <c r="Q21" t="n">
-        <v>199.6752471129006</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>19.52750511011325</v>
@@ -36361,25 +36361,25 @@
         <v>412.5122139660604</v>
       </c>
       <c r="L23" t="n">
-        <v>549.0323851772557</v>
+        <v>844.7629547258809</v>
       </c>
       <c r="M23" t="n">
         <v>642.8936464765092</v>
       </c>
       <c r="N23" t="n">
-        <v>1095.303674716969</v>
+        <v>657.956750304985</v>
       </c>
       <c r="O23" t="n">
-        <v>607.8199410001486</v>
+        <v>988.6201222628939</v>
       </c>
       <c r="P23" t="n">
         <v>483.9107614151673</v>
       </c>
       <c r="Q23" t="n">
-        <v>527.0524795279141</v>
+        <v>314.7374888680093</v>
       </c>
       <c r="R23" t="n">
-        <v>123.6773072705913</v>
+        <v>96.80847153110972</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>124.5557176724613</v>
       </c>
       <c r="K24" t="n">
-        <v>251.8731480903221</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>439.191663185101</v>
@@ -36449,10 +36449,10 @@
         <v>560.7048004261114</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>490.4911122411633</v>
       </c>
       <c r="P24" t="n">
-        <v>374.1340102931557</v>
+        <v>135.5160461423148</v>
       </c>
       <c r="Q24" t="n">
         <v>199.6752471129006</v>
@@ -36607,16 +36607,16 @@
         <v>657.956750304985</v>
       </c>
       <c r="O26" t="n">
-        <v>607.8199410001486</v>
+        <v>834.837158318687</v>
       </c>
       <c r="P26" t="n">
         <v>483.9107614151673</v>
       </c>
       <c r="Q26" t="n">
-        <v>476.0382863135658</v>
+        <v>314.7374888680093</v>
       </c>
       <c r="R26" t="n">
-        <v>162.5248914040922</v>
+        <v>96.80847153110972</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>124.5557176724613</v>
       </c>
       <c r="K27" t="n">
-        <v>291.8298278439723</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>439.191663185101</v>
       </c>
       <c r="M27" t="n">
-        <v>532.0683476977497</v>
+        <v>293.4503835469084</v>
       </c>
       <c r="N27" t="n">
         <v>560.7048004261114</v>
@@ -36689,10 +36689,10 @@
         <v>490.4911122411633</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>374.1340102931557</v>
       </c>
       <c r="Q27" t="n">
-        <v>167.9171830837042</v>
+        <v>199.6752471129006</v>
       </c>
       <c r="R27" t="n">
         <v>19.52750511011325</v>
@@ -36835,10 +36835,10 @@
         <v>412.5122139660604</v>
       </c>
       <c r="L29" t="n">
-        <v>776.0496024957947</v>
+        <v>966.6935997277062</v>
       </c>
       <c r="M29" t="n">
-        <v>1092.407179969342</v>
+        <v>642.8936464765092</v>
       </c>
       <c r="N29" t="n">
         <v>657.956750304985</v>
@@ -36847,7 +36847,7 @@
         <v>607.8199410001486</v>
       </c>
       <c r="P29" t="n">
-        <v>483.9107614151673</v>
+        <v>742.7802976760875</v>
       </c>
       <c r="Q29" t="n">
         <v>314.7374888680093</v>
@@ -36914,10 +36914,10 @@
         <v>291.8298278439723</v>
       </c>
       <c r="L30" t="n">
-        <v>439.191663185101</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>201.2958028158366</v>
+        <v>440.8122188880371</v>
       </c>
       <c r="N30" t="n">
         <v>560.7048004261114</v>
@@ -36929,7 +36929,7 @@
         <v>374.1340102931557</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>199.6752471129006</v>
       </c>
       <c r="R30" t="n">
         <v>19.52750511011325</v>
@@ -37084,10 +37084,10 @@
         <v>607.8199410001486</v>
       </c>
       <c r="P32" t="n">
-        <v>641.9100986526187</v>
+        <v>483.9107614151673</v>
       </c>
       <c r="Q32" t="n">
-        <v>314.7374888680093</v>
+        <v>472.7368261054605</v>
       </c>
       <c r="R32" t="n">
         <v>96.80847153110972</v>
@@ -37154,7 +37154,7 @@
         <v>439.191663185101</v>
       </c>
       <c r="M33" t="n">
-        <v>532.0683476977497</v>
+        <v>1.62055570293591</v>
       </c>
       <c r="N33" t="n">
         <v>560.7048004261114</v>
@@ -37163,13 +37163,13 @@
         <v>490.4911122411633</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>374.1340102931557</v>
       </c>
       <c r="Q33" t="n">
-        <v>62.88897052135592</v>
+        <v>199.6752471129006</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>19.52750511011325</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>394.2077813686278</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2303867852964</v>
+        <v>424.2303867852965</v>
       </c>
       <c r="N34" t="n">
         <v>420.4639588919883</v>
@@ -37312,7 +37312,7 @@
         <v>549.0323851772557</v>
       </c>
       <c r="M35" t="n">
-        <v>800.8929837139609</v>
+        <v>735.1765638409798</v>
       </c>
       <c r="N35" t="n">
         <v>657.956750304985</v>
@@ -37327,7 +37327,7 @@
         <v>314.7374888680093</v>
       </c>
       <c r="R35" t="n">
-        <v>96.80847153110972</v>
+        <v>162.5248914040922</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>124.5557176724613</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>291.8298278439723</v>
       </c>
       <c r="L36" t="n">
         <v>439.191663185101</v>
@@ -37394,7 +37394,7 @@
         <v>532.0683476977497</v>
       </c>
       <c r="N36" t="n">
-        <v>322.0868362752701</v>
+        <v>49.78451354141114</v>
       </c>
       <c r="O36" t="n">
         <v>490.4911122411633</v>
@@ -37406,7 +37406,7 @@
         <v>199.6752471129006</v>
       </c>
       <c r="R36" t="n">
-        <v>19.52750511011325</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>99.31862029445881</v>
+        <v>99.31862029445878</v>
       </c>
       <c r="K37" t="n">
         <v>271.8682127886988</v>
       </c>
       <c r="L37" t="n">
-        <v>394.2077813686278</v>
+        <v>394.2077813686277</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2303867852965</v>
+        <v>424.2303867852964</v>
       </c>
       <c r="N37" t="n">
-        <v>420.4639588919883</v>
+        <v>420.4639588919882</v>
       </c>
       <c r="O37" t="n">
-        <v>374.8573547822993</v>
+        <v>374.8573547822992</v>
       </c>
       <c r="P37" t="n">
-        <v>302.0428858668043</v>
+        <v>302.0428858668042</v>
       </c>
       <c r="Q37" t="n">
         <v>135.597008933922</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-1.392376674115752e-12</v>
       </c>
       <c r="J38" t="n">
         <v>241.0431417100076</v>
       </c>
       <c r="K38" t="n">
-        <v>570.5115512035123</v>
+        <v>412.5122139660604</v>
       </c>
       <c r="L38" t="n">
         <v>549.0323851772557</v>
@@ -37552,7 +37552,7 @@
         <v>642.8936464765092</v>
       </c>
       <c r="N38" t="n">
-        <v>657.956750304985</v>
+        <v>815.9560875424388</v>
       </c>
       <c r="O38" t="n">
         <v>607.8199410001486</v>
@@ -37622,13 +37622,13 @@
         <v>124.5557176724613</v>
       </c>
       <c r="K39" t="n">
-        <v>155.0435512524274</v>
+        <v>291.8298278439723</v>
       </c>
       <c r="L39" t="n">
         <v>439.191663185101</v>
       </c>
       <c r="M39" t="n">
-        <v>532.0683476977497</v>
+        <v>1.62055570293637</v>
       </c>
       <c r="N39" t="n">
         <v>560.7048004261114</v>
@@ -37637,13 +37637,13 @@
         <v>490.4911122411633</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>374.1340102931557</v>
       </c>
       <c r="Q39" t="n">
         <v>199.6752471129006</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>19.52750511011325</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>99.3186202944588</v>
+        <v>99.31862029445878</v>
       </c>
       <c r="K40" t="n">
         <v>271.8682127886988</v>
@@ -37710,7 +37710,7 @@
         <v>424.2303867852964</v>
       </c>
       <c r="N40" t="n">
-        <v>420.4639588919886</v>
+        <v>420.4639588919883</v>
       </c>
       <c r="O40" t="n">
         <v>374.8573547822992</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>241.0431417100075</v>
+        <v>241.0431417100076</v>
       </c>
       <c r="K41" t="n">
-        <v>570.511551203513</v>
+        <v>412.5122139660604</v>
       </c>
       <c r="L41" t="n">
-        <v>549.0323851772555</v>
+        <v>549.0323851772557</v>
       </c>
       <c r="M41" t="n">
-        <v>642.893646476509</v>
+        <v>642.8936464765092</v>
       </c>
       <c r="N41" t="n">
-        <v>657.9567503049848</v>
+        <v>657.956750304985</v>
       </c>
       <c r="O41" t="n">
-        <v>607.8199410001484</v>
+        <v>607.8199410001486</v>
       </c>
       <c r="P41" t="n">
-        <v>483.9107614151672</v>
+        <v>641.9100986526196</v>
       </c>
       <c r="Q41" t="n">
-        <v>314.7374888680092</v>
+        <v>314.7374888680093</v>
       </c>
       <c r="R41" t="n">
-        <v>96.80847153110966</v>
+        <v>96.80847153110972</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>124.5557176724613</v>
       </c>
       <c r="K42" t="n">
-        <v>291.8298278439722</v>
+        <v>291.8298278439723</v>
       </c>
       <c r="L42" t="n">
-        <v>439.1916631851009</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>532.0683476977495</v>
+        <v>532.0683476977497</v>
       </c>
       <c r="N42" t="n">
-        <v>560.7048004261113</v>
+        <v>560.7048004261114</v>
       </c>
       <c r="O42" t="n">
-        <v>159.718567359251</v>
+        <v>490.4911122411633</v>
       </c>
       <c r="P42" t="n">
-        <v>374.1340102931556</v>
+        <v>282.8778814834435</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>199.6752471129006</v>
       </c>
       <c r="R42" t="n">
-        <v>19.52750511011322</v>
+        <v>19.52750511011325</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,19 +37941,19 @@
         <v>271.8682127886988</v>
       </c>
       <c r="L43" t="n">
-        <v>394.2077813686277</v>
+        <v>394.2077813686278</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2303867852964</v>
+        <v>424.2303867852965</v>
       </c>
       <c r="N43" t="n">
-        <v>420.4639588919882</v>
+        <v>420.4639588919883</v>
       </c>
       <c r="O43" t="n">
-        <v>374.8573547822992</v>
+        <v>374.8573547822993</v>
       </c>
       <c r="P43" t="n">
-        <v>302.0428858668042</v>
+        <v>302.0428858668043</v>
       </c>
       <c r="Q43" t="n">
         <v>135.597008933922</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>241.0431417100075</v>
+        <v>241.0431417100077</v>
       </c>
       <c r="K44" t="n">
-        <v>412.5122139660603</v>
+        <v>412.5122139660605</v>
       </c>
       <c r="L44" t="n">
-        <v>549.0323851772555</v>
+        <v>549.0323851772559</v>
       </c>
       <c r="M44" t="n">
-        <v>642.893646476509</v>
+        <v>642.8936464765094</v>
       </c>
       <c r="N44" t="n">
-        <v>657.9567503049848</v>
+        <v>815.9560875424363</v>
       </c>
       <c r="O44" t="n">
-        <v>607.8199410001484</v>
+        <v>607.8199410001487</v>
       </c>
       <c r="P44" t="n">
-        <v>483.9107614151672</v>
+        <v>483.9107614151674</v>
       </c>
       <c r="Q44" t="n">
-        <v>472.7368261054619</v>
+        <v>314.7374888680095</v>
       </c>
       <c r="R44" t="n">
-        <v>96.80847153110966</v>
+        <v>96.80847153110977</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>124.5557176724613</v>
+        <v>124.5557176724614</v>
       </c>
       <c r="K45" t="n">
-        <v>251.8731480903228</v>
+        <v>291.8298278439724</v>
       </c>
       <c r="L45" t="n">
-        <v>439.1916631851009</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>532.0683476977495</v>
+        <v>532.0683476977497</v>
       </c>
       <c r="N45" t="n">
-        <v>560.7048004261113</v>
+        <v>560.7048004261117</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>399.2349834314504</v>
       </c>
       <c r="P45" t="n">
-        <v>374.1340102931556</v>
+        <v>374.1340102931558</v>
       </c>
       <c r="Q45" t="n">
-        <v>199.6752471129005</v>
+        <v>199.6752471129006</v>
       </c>
       <c r="R45" t="n">
-        <v>19.52750511011322</v>
+        <v>19.52750511011328</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>99.31862029445878</v>
+        <v>99.31862029445881</v>
       </c>
       <c r="K46" t="n">
-        <v>271.8682127886987</v>
+        <v>271.8682127886988</v>
       </c>
       <c r="L46" t="n">
-        <v>394.2077813686276</v>
+        <v>394.2077813686278</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2303867852964</v>
+        <v>424.2303867852965</v>
       </c>
       <c r="N46" t="n">
-        <v>420.4639588919882</v>
+        <v>420.4639588919883</v>
       </c>
       <c r="O46" t="n">
-        <v>374.8573547822992</v>
+        <v>374.8573547822993</v>
       </c>
       <c r="P46" t="n">
-        <v>302.0428858668042</v>
+        <v>302.0428858668043</v>
       </c>
       <c r="Q46" t="n">
         <v>135.597008933922</v>
